--- a/Data Request Form.xlsx
+++ b/Data Request Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob.sharepoint.com/teams/grp-UKLLCResourcesforResearchers/Shared Documents/General/1. Application Process/2. Data Request Forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bq21582_bristol_ac_uk/Documents/Documents/Programs/web app/web-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="210" documentId="14_{E4E3E1F5-7BD8-479D-B485-03FDD2CCC102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{143ECFDE-EB58-45AB-8CF9-9F2533052042}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="1" xr2:uid="{D7694A9D-E167-44BD-A564-FD943CF50242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{D7694A9D-E167-44BD-A564-FD943CF50242}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview &amp; instructions" sheetId="9" r:id="rId1"/>
@@ -4534,7 +4534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6096,6 +6096,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6124,6 +6130,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6156,13 +6165,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -6178,18 +6190,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6526,21 +6526,21 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" customWidth="1"/>
     <col min="4" max="4" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1"/>
-    <row r="2" spans="2:4">
-      <c r="B2" s="247" t="s">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="248"/>
-    </row>
-    <row r="3" spans="2:4" ht="21.75" customHeight="1">
+      <c r="C2" s="250"/>
+    </row>
+    <row r="3" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="32.25" customHeight="1">
+    <row r="4" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="45" customHeight="1">
+    <row r="5" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
@@ -6564,51 +6564,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="23.1" customHeight="1"/>
-    <row r="8" spans="2:4">
-      <c r="B8" s="247" t="s">
+    <row r="6" spans="2:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="248"/>
-    </row>
-    <row r="9" spans="2:4" ht="48" customHeight="1">
-      <c r="B9" s="245" t="s">
+      <c r="C8" s="250"/>
+    </row>
+    <row r="9" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="246"/>
-    </row>
-    <row r="10" spans="2:4" ht="34.5" customHeight="1">
-      <c r="B10" s="245" t="s">
+      <c r="C9" s="248"/>
+    </row>
+    <row r="10" spans="2:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="249"/>
+      <c r="C10" s="251"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="2:4" ht="35.450000000000003" customHeight="1">
-      <c r="B11" s="245" t="s">
+    <row r="11" spans="2:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="246"/>
-    </row>
-    <row r="12" spans="2:4" ht="52.5" customHeight="1">
-      <c r="B12" s="245" t="s">
+      <c r="C11" s="248"/>
+    </row>
+    <row r="12" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="246"/>
-    </row>
-    <row r="13" spans="2:4" ht="36.950000000000003" customHeight="1">
-      <c r="B13" s="243" t="s">
+      <c r="C12" s="248"/>
+    </row>
+    <row r="13" spans="2:4" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="245" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="244"/>
-    </row>
-    <row r="14" spans="2:4" ht="128.44999999999999" customHeight="1">
-      <c r="B14" s="241" t="s">
+      <c r="C13" s="246"/>
+    </row>
+    <row r="14" spans="2:4" ht="128.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="242"/>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="C14" s="244"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
     </row>
   </sheetData>
@@ -6629,13 +6629,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E65E65-144D-4487-B923-632E9E62DAA5}">
-  <dimension ref="A1:BO37"/>
+  <dimension ref="A2:BO37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="30.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" style="2" customWidth="1"/>
@@ -6647,8 +6647,7 @@
     <col min="10" max="10" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="15"/>
-    <row r="2" spans="1:67" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:67" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="191" t="s">
         <v>14</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="4" customFormat="1" ht="75">
+    <row r="3" spans="1:67" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B3" s="195" t="s">
         <v>23</v>
       </c>
@@ -6755,7 +6754,7 @@
       <c r="BF3"/>
       <c r="BG3"/>
     </row>
-    <row r="4" spans="1:67" ht="78" customHeight="1">
+    <row r="4" spans="1:67" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="197" t="s">
         <v>32</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:67" ht="103.5" customHeight="1">
+    <row r="5" spans="1:67" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="199" t="s">
         <v>40</v>
       </c>
@@ -6813,7 +6812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:67" ht="74.45" customHeight="1">
+    <row r="6" spans="1:67" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="201" t="s">
         <v>48</v>
       </c>
@@ -6842,7 +6841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="4" customFormat="1" ht="60">
+    <row r="7" spans="1:67" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="203" t="s">
         <v>56</v>
       </c>
@@ -6920,7 +6919,7 @@
       <c r="BF7"/>
       <c r="BG7"/>
     </row>
-    <row r="8" spans="1:67" ht="64.5" customHeight="1">
+    <row r="8" spans="1:67" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="205" t="s">
         <v>64</v>
       </c>
@@ -6949,7 +6948,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:67" s="4" customFormat="1" ht="75">
+    <row r="9" spans="1:67" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="207" t="s">
         <v>70</v>
       </c>
@@ -7027,7 +7026,7 @@
       <c r="BF9"/>
       <c r="BG9"/>
     </row>
-    <row r="10" spans="1:67" ht="61.5" customHeight="1">
+    <row r="10" spans="1:67" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="209" t="s">
         <v>77</v>
       </c>
@@ -7056,7 +7055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:67" ht="59.1" customHeight="1">
+    <row r="11" spans="1:67" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="211" t="s">
         <v>86</v>
       </c>
@@ -7083,7 +7082,7 @@
       </c>
       <c r="J11" s="212"/>
     </row>
-    <row r="12" spans="1:67" ht="138" customHeight="1">
+    <row r="12" spans="1:67" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="213" t="s">
         <v>94</v>
       </c>
@@ -7112,7 +7111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:67" ht="117" customHeight="1">
+    <row r="13" spans="1:67" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="215" t="s">
         <v>100</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:67" ht="101.45" customHeight="1">
+    <row r="14" spans="1:67" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="217" t="s">
         <v>106</v>
       </c>
@@ -7170,7 +7169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:67" ht="75">
+    <row r="15" spans="1:67" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="219" t="s">
         <v>112</v>
       </c>
@@ -7197,7 +7196,7 @@
       </c>
       <c r="J15" s="220"/>
     </row>
-    <row r="16" spans="1:67" s="10" customFormat="1" ht="75">
+    <row r="16" spans="1:67" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="221" t="s">
         <v>119</v>
@@ -7282,7 +7281,7 @@
       <c r="BN16"/>
       <c r="BO16"/>
     </row>
-    <row r="17" spans="2:59" s="3" customFormat="1" ht="63" customHeight="1">
+    <row r="17" spans="2:59" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="223" t="s">
         <v>125</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:59" ht="87.6" customHeight="1">
+    <row r="18" spans="2:59" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="225" t="s">
         <v>132</v>
       </c>
@@ -7340,7 +7339,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="2:59" ht="88.5" customHeight="1">
+    <row r="19" spans="2:59" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="227" t="s">
         <v>139</v>
       </c>
@@ -7367,7 +7366,7 @@
       </c>
       <c r="J19" s="228"/>
     </row>
-    <row r="20" spans="2:59" ht="90">
+    <row r="20" spans="2:59" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" s="229" t="s">
         <v>144</v>
       </c>
@@ -7396,7 +7395,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:59" ht="103.5" customHeight="1">
+    <row r="21" spans="2:59" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="231" t="s">
         <v>151</v>
       </c>
@@ -7425,9 +7424,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="2:59" s="4" customFormat="1" ht="15">
+    <row r="22" spans="2:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="233"/>
-      <c r="C22" s="267"/>
+      <c r="C22" s="241"/>
       <c r="D22" s="186"/>
       <c r="E22" s="186"/>
       <c r="F22" s="186"/>
@@ -7485,22 +7484,22 @@
       <c r="BF22"/>
       <c r="BG22"/>
     </row>
-    <row r="23" spans="2:59" ht="14.45" customHeight="1">
-      <c r="B23" s="250" t="s">
+    <row r="23" spans="2:59" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="252" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="268"/>
-      <c r="D23" s="251"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="251"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="251"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="252"/>
-    </row>
-    <row r="24" spans="2:59" ht="15">
+      <c r="C23" s="253"/>
+      <c r="D23" s="254"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="254"/>
+      <c r="J23" s="255"/>
+    </row>
+    <row r="24" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B24" s="233"/>
-      <c r="C24" s="267"/>
+      <c r="C24" s="241"/>
       <c r="D24" s="186"/>
       <c r="E24" s="186"/>
       <c r="F24" s="186"/>
@@ -7509,11 +7508,11 @@
       <c r="I24" s="189"/>
       <c r="J24" s="235"/>
     </row>
-    <row r="25" spans="2:59" ht="120">
+    <row r="25" spans="2:59" ht="120" x14ac:dyDescent="0.25">
       <c r="B25" s="233" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="267"/>
+      <c r="C25" s="241"/>
       <c r="D25" s="186" t="s">
         <v>161</v>
       </c>
@@ -7536,11 +7535,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="2:59" ht="75">
+    <row r="26" spans="2:59" ht="75" x14ac:dyDescent="0.25">
       <c r="B26" s="233" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="267"/>
+      <c r="C26" s="241"/>
       <c r="D26" s="186" t="s">
         <v>167</v>
       </c>
@@ -7561,11 +7560,11 @@
       </c>
       <c r="J26" s="235"/>
     </row>
-    <row r="27" spans="2:59" ht="90">
+    <row r="27" spans="2:59" ht="90" x14ac:dyDescent="0.25">
       <c r="B27" s="233" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="267"/>
+      <c r="C27" s="241"/>
       <c r="D27" s="186" t="s">
         <v>172</v>
       </c>
@@ -7586,11 +7585,11 @@
       </c>
       <c r="J27" s="235"/>
     </row>
-    <row r="28" spans="2:59" ht="105">
+    <row r="28" spans="2:59" ht="120" x14ac:dyDescent="0.25">
       <c r="B28" s="233" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="267"/>
+      <c r="C28" s="241"/>
       <c r="D28" s="186" t="s">
         <v>177</v>
       </c>
@@ -7609,11 +7608,11 @@
       </c>
       <c r="J28" s="235"/>
     </row>
-    <row r="29" spans="2:59" ht="90">
+    <row r="29" spans="2:59" ht="90" x14ac:dyDescent="0.25">
       <c r="B29" s="236" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="269"/>
+      <c r="C29" s="242"/>
       <c r="D29" s="237" t="s">
         <v>181</v>
       </c>
@@ -7636,49 +7635,49 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="2:59" ht="15">
+    <row r="30" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="2:59" ht="15">
+    <row r="31" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:59" ht="15">
+    <row r="32" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="7:10" ht="15">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="7:10" ht="15">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="7:10" ht="15">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="7:10" ht="15">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="7:10" ht="15">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -7740,11 +7739,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91592CD1-91CB-4D72-A502-9CC908880065}">
   <dimension ref="A1:S496"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="73" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="73" customWidth="1"/>
@@ -7764,42 +7763,42 @@
     <col min="20" max="16384" width="8.7109375" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="24.95" customHeight="1">
+    <row r="1" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="128"/>
     </row>
-    <row r="2" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B2" s="254" t="s">
+    <row r="2" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="257" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-    </row>
-    <row r="3" spans="2:19" ht="12" customHeight="1">
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-    </row>
-    <row r="4" spans="2:19" ht="12" customHeight="1">
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+    </row>
+    <row r="3" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+    </row>
+    <row r="4" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F4" s="73"/>
     </row>
-    <row r="5" spans="2:19" ht="24.95" customHeight="1">
+    <row r="5" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="129"/>
     </row>
-    <row r="6" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B6" s="255" t="s">
+    <row r="6" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="258" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="255" t="s">
+      <c r="C6" s="258" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="255" t="s">
+      <c r="D6" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="255" t="s">
+      <c r="E6" s="258" t="s">
         <v>191</v>
       </c>
       <c r="F6" s="45" t="s">
@@ -7814,30 +7813,30 @@
       <c r="I6" s="116" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="256" t="s">
+      <c r="J6" s="259" t="s">
         <v>196</v>
       </c>
-      <c r="K6" s="256" t="s">
+      <c r="K6" s="259" t="s">
         <v>197</v>
       </c>
-      <c r="L6" s="256"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="256"/>
-      <c r="O6" s="256"/>
-      <c r="P6" s="256"/>
-      <c r="Q6" s="256" t="s">
+      <c r="L6" s="259"/>
+      <c r="M6" s="259"/>
+      <c r="N6" s="259"/>
+      <c r="O6" s="259"/>
+      <c r="P6" s="259"/>
+      <c r="Q6" s="259" t="s">
         <v>198</v>
       </c>
-      <c r="R6" s="255" t="s">
+      <c r="R6" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="S6" s="255"/>
-    </row>
-    <row r="7" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B7" s="255"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
-      <c r="E7" s="255"/>
+      <c r="S6" s="258"/>
+    </row>
+    <row r="7" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="258"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="258"/>
+      <c r="E7" s="258"/>
       <c r="F7" s="46" t="s">
         <v>200</v>
       </c>
@@ -7850,7 +7849,7 @@
       <c r="I7" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="J7" s="256"/>
+      <c r="J7" s="259"/>
       <c r="K7" s="115">
         <v>1</v>
       </c>
@@ -7869,11 +7868,11 @@
       <c r="P7" s="115">
         <v>6</v>
       </c>
-      <c r="Q7" s="256"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-    </row>
-    <row r="8" spans="2:19" ht="24.95" customHeight="1">
+      <c r="Q7" s="259"/>
+      <c r="R7" s="258"/>
+      <c r="S7" s="258"/>
+    </row>
+    <row r="8" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="125"/>
       <c r="C8" s="125"/>
       <c r="D8" s="48" t="s">
@@ -7925,7 +7924,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="24.95" customHeight="1">
+    <row r="9" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="48" t="s">
@@ -7977,7 +7976,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="24.95" customHeight="1">
+    <row r="10" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="125"/>
       <c r="C10" s="125"/>
       <c r="D10" s="48" t="s">
@@ -8029,7 +8028,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="24.95" customHeight="1">
+    <row r="11" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="125"/>
       <c r="C11" s="125"/>
       <c r="D11" s="48" t="s">
@@ -8081,7 +8080,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="24.95" customHeight="1">
+    <row r="12" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="125"/>
       <c r="C12" s="125"/>
       <c r="D12" s="48" t="s">
@@ -8127,7 +8126,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="24.95" customHeight="1">
+    <row r="13" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="125"/>
       <c r="C13" s="125"/>
       <c r="D13" s="48" t="s">
@@ -8173,55 +8172,55 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="35.450000000000003" customHeight="1">
-      <c r="B14" s="259"/>
-      <c r="C14" s="259"/>
-      <c r="D14" s="257" t="s">
+    <row r="14" spans="2:19" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="262"/>
+      <c r="C14" s="262"/>
+      <c r="D14" s="260" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="257" t="s">
+      <c r="E14" s="260" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="258" t="s">
+      <c r="F14" s="261" t="s">
         <v>238</v>
       </c>
-      <c r="G14" s="253"/>
-      <c r="H14" s="253"/>
-      <c r="I14" s="253"/>
-      <c r="J14" s="253"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
-      <c r="M14" s="253"/>
-      <c r="N14" s="253"/>
-      <c r="O14" s="253"/>
-      <c r="P14" s="253"/>
-      <c r="Q14" s="253"/>
-      <c r="R14" s="253"/>
-      <c r="S14" s="253"/>
-    </row>
-    <row r="15" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B15" s="259"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="257"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="253" t="s">
+      <c r="G14" s="256"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="256"/>
+      <c r="K14" s="256"/>
+      <c r="L14" s="256"/>
+      <c r="M14" s="256"/>
+      <c r="N14" s="256"/>
+      <c r="O14" s="256"/>
+      <c r="P14" s="256"/>
+      <c r="Q14" s="256"/>
+      <c r="R14" s="256"/>
+      <c r="S14" s="256"/>
+    </row>
+    <row r="15" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="262"/>
+      <c r="C15" s="262"/>
+      <c r="D15" s="260"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="256" t="s">
         <v>239</v>
       </c>
-      <c r="G15" s="253"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="253"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="253"/>
-      <c r="M15" s="253"/>
-      <c r="N15" s="253"/>
-      <c r="O15" s="253"/>
-      <c r="P15" s="253"/>
-      <c r="Q15" s="253"/>
-      <c r="R15" s="253"/>
-      <c r="S15" s="253"/>
-    </row>
-    <row r="16" spans="2:19" ht="24.95" customHeight="1">
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="256"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="256"/>
+      <c r="M15" s="256"/>
+      <c r="N15" s="256"/>
+      <c r="O15" s="256"/>
+      <c r="P15" s="256"/>
+      <c r="Q15" s="256"/>
+      <c r="R15" s="256"/>
+      <c r="S15" s="256"/>
+    </row>
+    <row r="16" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="125"/>
       <c r="C16" s="125"/>
       <c r="D16" s="50" t="s">
@@ -8269,7 +8268,7 @@
       </c>
       <c r="S16" s="82"/>
     </row>
-    <row r="17" spans="2:19" ht="24.95" customHeight="1">
+    <row r="17" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="125"/>
       <c r="C17" s="125"/>
       <c r="D17" s="50" t="s">
@@ -8317,7 +8316,7 @@
       </c>
       <c r="S17" s="82"/>
     </row>
-    <row r="18" spans="2:19" ht="24.95" customHeight="1">
+    <row r="18" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="125"/>
       <c r="C18" s="125"/>
       <c r="D18" s="50" t="s">
@@ -8365,7 +8364,7 @@
       </c>
       <c r="S18" s="82"/>
     </row>
-    <row r="19" spans="2:19" ht="24.95" customHeight="1">
+    <row r="19" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="125"/>
       <c r="C19" s="125"/>
       <c r="D19" s="50" t="s">
@@ -8413,7 +8412,7 @@
       </c>
       <c r="S19" s="82"/>
     </row>
-    <row r="20" spans="2:19" ht="24.95" customHeight="1">
+    <row r="20" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="125"/>
       <c r="C20" s="125"/>
       <c r="D20" s="50" t="s">
@@ -8461,7 +8460,7 @@
       </c>
       <c r="S20" s="82"/>
     </row>
-    <row r="21" spans="2:19" ht="24.95" customHeight="1">
+    <row r="21" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="125"/>
       <c r="C21" s="125"/>
       <c r="D21" s="50" t="s">
@@ -8509,7 +8508,7 @@
       </c>
       <c r="S21" s="82"/>
     </row>
-    <row r="22" spans="2:19" ht="24.95" customHeight="1">
+    <row r="22" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="125"/>
       <c r="C22" s="125"/>
       <c r="D22" s="50" t="s">
@@ -8557,7 +8556,7 @@
       </c>
       <c r="S22" s="82"/>
     </row>
-    <row r="23" spans="2:19" ht="24.95" customHeight="1">
+    <row r="23" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="125"/>
       <c r="C23" s="125"/>
       <c r="D23" s="50" t="s">
@@ -8605,7 +8604,7 @@
       </c>
       <c r="S23" s="82"/>
     </row>
-    <row r="24" spans="2:19" ht="24.95" customHeight="1">
+    <row r="24" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="125"/>
       <c r="C24" s="125"/>
       <c r="D24" s="50" t="s">
@@ -8653,7 +8652,7 @@
       </c>
       <c r="S24" s="82"/>
     </row>
-    <row r="25" spans="2:19" ht="24.95" customHeight="1">
+    <row r="25" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="125"/>
       <c r="C25" s="125"/>
       <c r="D25" s="50" t="s">
@@ -8701,7 +8700,7 @@
       </c>
       <c r="S25" s="82"/>
     </row>
-    <row r="26" spans="2:19" ht="24.95" customHeight="1">
+    <row r="26" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="125"/>
       <c r="C26" s="125"/>
       <c r="D26" s="50" t="s">
@@ -8749,7 +8748,7 @@
       </c>
       <c r="S26" s="82"/>
     </row>
-    <row r="27" spans="2:19" ht="24.95" customHeight="1">
+    <row r="27" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="125"/>
       <c r="C27" s="125"/>
       <c r="D27" s="50" t="s">
@@ -8797,7 +8796,7 @@
       </c>
       <c r="S27" s="82"/>
     </row>
-    <row r="28" spans="2:19" ht="24.95" customHeight="1">
+    <row r="28" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="125"/>
       <c r="C28" s="125"/>
       <c r="D28" s="50" t="s">
@@ -8845,7 +8844,7 @@
       </c>
       <c r="S28" s="82"/>
     </row>
-    <row r="29" spans="2:19" ht="24.95" customHeight="1">
+    <row r="29" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="125"/>
       <c r="C29" s="125"/>
       <c r="D29" s="50" t="s">
@@ -8893,7 +8892,7 @@
       </c>
       <c r="S29" s="82"/>
     </row>
-    <row r="30" spans="2:19" ht="24.95" customHeight="1">
+    <row r="30" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="125"/>
       <c r="C30" s="125"/>
       <c r="D30" s="50" t="s">
@@ -8941,7 +8940,7 @@
       </c>
       <c r="S30" s="82"/>
     </row>
-    <row r="31" spans="2:19" ht="24.95" customHeight="1">
+    <row r="31" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="125"/>
       <c r="C31" s="125"/>
       <c r="D31" s="50" t="s">
@@ -8989,7 +8988,7 @@
       </c>
       <c r="S31" s="82"/>
     </row>
-    <row r="32" spans="2:19" ht="24.95" customHeight="1">
+    <row r="32" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="125"/>
       <c r="C32" s="125"/>
       <c r="D32" s="50" t="s">
@@ -9037,7 +9036,7 @@
       </c>
       <c r="S32" s="82"/>
     </row>
-    <row r="33" spans="2:19" ht="24.95" customHeight="1">
+    <row r="33" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="125"/>
       <c r="C33" s="125"/>
       <c r="D33" s="50" t="s">
@@ -9085,7 +9084,7 @@
       </c>
       <c r="S33" s="82"/>
     </row>
-    <row r="34" spans="2:19" ht="24.95" customHeight="1">
+    <row r="34" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="125"/>
       <c r="C34" s="125"/>
       <c r="D34" s="50" t="s">
@@ -9133,7 +9132,7 @@
       </c>
       <c r="S34" s="82"/>
     </row>
-    <row r="35" spans="2:19" ht="24.95" customHeight="1">
+    <row r="35" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="125"/>
       <c r="C35" s="125"/>
       <c r="D35" s="50" t="s">
@@ -9181,7 +9180,7 @@
       </c>
       <c r="S35" s="82"/>
     </row>
-    <row r="36" spans="2:19" ht="24.95" customHeight="1">
+    <row r="36" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="125"/>
       <c r="C36" s="125"/>
       <c r="D36" s="50" t="s">
@@ -9229,7 +9228,7 @@
       </c>
       <c r="S36" s="82"/>
     </row>
-    <row r="37" spans="2:19" ht="24.95" customHeight="1">
+    <row r="37" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="125"/>
       <c r="C37" s="125"/>
       <c r="D37" s="50" t="s">
@@ -9277,7 +9276,7 @@
       </c>
       <c r="S37" s="82"/>
     </row>
-    <row r="38" spans="2:19" ht="24.95" customHeight="1">
+    <row r="38" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="125"/>
       <c r="C38" s="125"/>
       <c r="D38" s="50" t="s">
@@ -9325,7 +9324,7 @@
       </c>
       <c r="S38" s="82"/>
     </row>
-    <row r="39" spans="2:19" ht="24.95" customHeight="1">
+    <row r="39" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="125"/>
       <c r="C39" s="125"/>
       <c r="D39" s="50" t="s">
@@ -9373,7 +9372,7 @@
       </c>
       <c r="S39" s="82"/>
     </row>
-    <row r="40" spans="2:19" ht="24.95" customHeight="1">
+    <row r="40" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="125"/>
       <c r="C40" s="125"/>
       <c r="D40" s="50" t="s">
@@ -9421,7 +9420,7 @@
       </c>
       <c r="S40" s="82"/>
     </row>
-    <row r="41" spans="2:19" ht="24.95" customHeight="1">
+    <row r="41" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="125"/>
       <c r="C41" s="125"/>
       <c r="D41" s="50" t="s">
@@ -9469,7 +9468,7 @@
       </c>
       <c r="S41" s="82"/>
     </row>
-    <row r="42" spans="2:19" ht="24.95" customHeight="1">
+    <row r="42" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="125"/>
       <c r="C42" s="125"/>
       <c r="D42" s="50" t="s">
@@ -9517,7 +9516,7 @@
       </c>
       <c r="S42" s="82"/>
     </row>
-    <row r="43" spans="2:19" ht="24.95" customHeight="1">
+    <row r="43" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="125"/>
       <c r="C43" s="125"/>
       <c r="D43" s="50" t="s">
@@ -9565,7 +9564,7 @@
       </c>
       <c r="S43" s="82"/>
     </row>
-    <row r="44" spans="2:19" ht="24.95" customHeight="1">
+    <row r="44" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="125"/>
       <c r="C44" s="125"/>
       <c r="D44" s="50" t="s">
@@ -9613,7 +9612,7 @@
       </c>
       <c r="S44" s="82"/>
     </row>
-    <row r="45" spans="2:19" ht="24.95" customHeight="1">
+    <row r="45" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="125"/>
       <c r="C45" s="125"/>
       <c r="D45" s="50" t="s">
@@ -9661,7 +9660,7 @@
       </c>
       <c r="S45" s="82"/>
     </row>
-    <row r="46" spans="2:19" ht="24.95" customHeight="1">
+    <row r="46" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="125"/>
       <c r="C46" s="125"/>
       <c r="D46" s="50" t="s">
@@ -9709,7 +9708,7 @@
       </c>
       <c r="S46" s="82"/>
     </row>
-    <row r="47" spans="2:19" ht="24.95" customHeight="1">
+    <row r="47" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="125"/>
       <c r="C47" s="125"/>
       <c r="D47" s="50" t="s">
@@ -9757,7 +9756,7 @@
       </c>
       <c r="S47" s="82"/>
     </row>
-    <row r="48" spans="2:19" ht="24.95" customHeight="1">
+    <row r="48" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="125"/>
       <c r="C48" s="125"/>
       <c r="D48" s="51" t="s">
@@ -9805,7 +9804,7 @@
       </c>
       <c r="S48" s="82"/>
     </row>
-    <row r="49" spans="2:19" ht="24.95" customHeight="1">
+    <row r="49" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="125"/>
       <c r="C49" s="125"/>
       <c r="D49" s="51" t="s">
@@ -9853,7 +9852,7 @@
       </c>
       <c r="S49" s="82"/>
     </row>
-    <row r="50" spans="2:19" ht="24.95" customHeight="1">
+    <row r="50" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="125"/>
       <c r="C50" s="125"/>
       <c r="D50" s="51" t="s">
@@ -9901,7 +9900,7 @@
       </c>
       <c r="S50" s="82"/>
     </row>
-    <row r="51" spans="2:19" ht="24.95" customHeight="1">
+    <row r="51" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="125"/>
       <c r="C51" s="125"/>
       <c r="D51" s="51" t="s">
@@ -9949,7 +9948,7 @@
       </c>
       <c r="S51" s="82"/>
     </row>
-    <row r="52" spans="2:19" ht="24.95" customHeight="1">
+    <row r="52" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="125"/>
       <c r="C52" s="125"/>
       <c r="D52" s="51" t="s">
@@ -9997,7 +9996,7 @@
       </c>
       <c r="S52" s="82"/>
     </row>
-    <row r="53" spans="2:19" ht="24.95" customHeight="1">
+    <row r="53" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="125"/>
       <c r="C53" s="125"/>
       <c r="D53" s="51" t="s">
@@ -10045,7 +10044,7 @@
       </c>
       <c r="S53" s="82"/>
     </row>
-    <row r="54" spans="2:19" ht="24.95" customHeight="1">
+    <row r="54" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="125"/>
       <c r="C54" s="125"/>
       <c r="D54" s="51" t="s">
@@ -10093,7 +10092,7 @@
       </c>
       <c r="S54" s="82"/>
     </row>
-    <row r="55" spans="2:19" ht="24.95" customHeight="1">
+    <row r="55" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="125"/>
       <c r="C55" s="125"/>
       <c r="D55" s="51" t="s">
@@ -10141,7 +10140,7 @@
       </c>
       <c r="S55" s="82"/>
     </row>
-    <row r="56" spans="2:19" ht="24.95" customHeight="1">
+    <row r="56" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="125"/>
       <c r="C56" s="125"/>
       <c r="D56" s="51" t="s">
@@ -10189,7 +10188,7 @@
       </c>
       <c r="S56" s="82"/>
     </row>
-    <row r="57" spans="2:19" ht="24.95" customHeight="1">
+    <row r="57" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="125"/>
       <c r="C57" s="125"/>
       <c r="D57" s="51" t="s">
@@ -10237,7 +10236,7 @@
       </c>
       <c r="S57" s="82"/>
     </row>
-    <row r="58" spans="2:19" ht="24.95" customHeight="1">
+    <row r="58" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="125"/>
       <c r="C58" s="125"/>
       <c r="D58" s="51" t="s">
@@ -10285,7 +10284,7 @@
       </c>
       <c r="S58" s="82"/>
     </row>
-    <row r="59" spans="2:19" ht="24.95" customHeight="1">
+    <row r="59" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="125"/>
       <c r="C59" s="125"/>
       <c r="D59" s="51" t="s">
@@ -10333,7 +10332,7 @@
       </c>
       <c r="S59" s="82"/>
     </row>
-    <row r="60" spans="2:19" ht="24.95" customHeight="1">
+    <row r="60" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="125"/>
       <c r="C60" s="125"/>
       <c r="D60" s="51" t="s">
@@ -10381,7 +10380,7 @@
       </c>
       <c r="S60" s="82"/>
     </row>
-    <row r="61" spans="2:19" ht="24.95" customHeight="1">
+    <row r="61" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="125"/>
       <c r="C61" s="125"/>
       <c r="D61" s="51" t="s">
@@ -10429,7 +10428,7 @@
       </c>
       <c r="S61" s="82"/>
     </row>
-    <row r="62" spans="2:19" ht="24.95" customHeight="1">
+    <row r="62" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="125"/>
       <c r="C62" s="125"/>
       <c r="D62" s="51" t="s">
@@ -10477,7 +10476,7 @@
       </c>
       <c r="S62" s="82"/>
     </row>
-    <row r="63" spans="2:19" ht="24.95" customHeight="1">
+    <row r="63" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="125"/>
       <c r="C63" s="125"/>
       <c r="D63" s="51" t="s">
@@ -10525,7 +10524,7 @@
       </c>
       <c r="S63" s="82"/>
     </row>
-    <row r="64" spans="2:19" ht="24.95" customHeight="1">
+    <row r="64" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="125"/>
       <c r="C64" s="125"/>
       <c r="D64" s="51" t="s">
@@ -10573,7 +10572,7 @@
       </c>
       <c r="S64" s="82"/>
     </row>
-    <row r="65" spans="2:19" ht="24.95" customHeight="1">
+    <row r="65" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="125"/>
       <c r="C65" s="125"/>
       <c r="D65" s="51" t="s">
@@ -10621,7 +10620,7 @@
       </c>
       <c r="S65" s="82"/>
     </row>
-    <row r="66" spans="2:19" ht="24.95" customHeight="1">
+    <row r="66" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="125"/>
       <c r="C66" s="125"/>
       <c r="D66" s="51" t="s">
@@ -10669,7 +10668,7 @@
       </c>
       <c r="S66" s="82"/>
     </row>
-    <row r="67" spans="2:19" ht="24.95" customHeight="1">
+    <row r="67" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="125"/>
       <c r="C67" s="125"/>
       <c r="D67" s="52" t="s">
@@ -10719,7 +10718,7 @@
       </c>
       <c r="S67" s="84"/>
     </row>
-    <row r="68" spans="2:19" ht="24.95" customHeight="1">
+    <row r="68" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="125"/>
       <c r="C68" s="125"/>
       <c r="D68" s="52" t="s">
@@ -10769,7 +10768,7 @@
       </c>
       <c r="S68" s="84"/>
     </row>
-    <row r="69" spans="2:19" ht="24.95" customHeight="1">
+    <row r="69" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="125"/>
       <c r="C69" s="125"/>
       <c r="D69" s="52" t="s">
@@ -10821,7 +10820,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="70" spans="2:19" ht="24.95" customHeight="1">
+    <row r="70" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="125"/>
       <c r="C70" s="125"/>
       <c r="D70" s="53" t="s">
@@ -10871,7 +10870,7 @@
       </c>
       <c r="S70" s="86"/>
     </row>
-    <row r="71" spans="2:19" ht="24.95" customHeight="1">
+    <row r="71" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="125"/>
       <c r="C71" s="125"/>
       <c r="D71" s="53" t="s">
@@ -10921,7 +10920,7 @@
       </c>
       <c r="S71" s="86"/>
     </row>
-    <row r="72" spans="2:19" ht="24.95" customHeight="1">
+    <row r="72" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="125"/>
       <c r="C72" s="125"/>
       <c r="D72" s="53" t="s">
@@ -10971,7 +10970,7 @@
       </c>
       <c r="S72" s="86"/>
     </row>
-    <row r="73" spans="2:19" ht="24.95" customHeight="1">
+    <row r="73" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="125"/>
       <c r="C73" s="125"/>
       <c r="D73" s="53" t="s">
@@ -11021,7 +11020,7 @@
       </c>
       <c r="S73" s="86"/>
     </row>
-    <row r="74" spans="2:19" ht="24.95" customHeight="1">
+    <row r="74" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="125"/>
       <c r="C74" s="125"/>
       <c r="D74" s="53" t="s">
@@ -11071,7 +11070,7 @@
       </c>
       <c r="S74" s="86"/>
     </row>
-    <row r="75" spans="2:19" ht="24.95" customHeight="1">
+    <row r="75" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="125"/>
       <c r="C75" s="125"/>
       <c r="D75" s="53" t="s">
@@ -11121,7 +11120,7 @@
       </c>
       <c r="S75" s="86"/>
     </row>
-    <row r="76" spans="2:19" ht="24.95" customHeight="1">
+    <row r="76" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="125"/>
       <c r="C76" s="125"/>
       <c r="D76" s="53" t="s">
@@ -11171,7 +11170,7 @@
       </c>
       <c r="S76" s="86"/>
     </row>
-    <row r="77" spans="2:19" ht="24.95" customHeight="1">
+    <row r="77" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="125"/>
       <c r="C77" s="125"/>
       <c r="D77" s="53" t="s">
@@ -11221,7 +11220,7 @@
       </c>
       <c r="S77" s="86"/>
     </row>
-    <row r="78" spans="2:19" ht="24.95" customHeight="1">
+    <row r="78" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="125"/>
       <c r="C78" s="125"/>
       <c r="D78" s="53" t="s">
@@ -11271,7 +11270,7 @@
       </c>
       <c r="S78" s="86"/>
     </row>
-    <row r="79" spans="2:19" ht="24.95" customHeight="1">
+    <row r="79" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="125"/>
       <c r="C79" s="125"/>
       <c r="D79" s="53" t="s">
@@ -11321,7 +11320,7 @@
       </c>
       <c r="S79" s="86"/>
     </row>
-    <row r="80" spans="2:19" ht="24.95" customHeight="1">
+    <row r="80" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="125"/>
       <c r="C80" s="125"/>
       <c r="D80" s="53" t="s">
@@ -11371,7 +11370,7 @@
       </c>
       <c r="S80" s="86"/>
     </row>
-    <row r="81" spans="2:19" ht="24.95" customHeight="1">
+    <row r="81" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="125"/>
       <c r="C81" s="125"/>
       <c r="D81" s="53" t="s">
@@ -11421,7 +11420,7 @@
       </c>
       <c r="S81" s="86"/>
     </row>
-    <row r="82" spans="2:19" ht="24.95" customHeight="1">
+    <row r="82" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="125"/>
       <c r="C82" s="125"/>
       <c r="D82" s="53" t="s">
@@ -11471,7 +11470,7 @@
       </c>
       <c r="S82" s="86"/>
     </row>
-    <row r="83" spans="2:19" ht="24.95" customHeight="1">
+    <row r="83" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="125"/>
       <c r="C83" s="125"/>
       <c r="D83" s="53" t="s">
@@ -11521,7 +11520,7 @@
       </c>
       <c r="S83" s="86"/>
     </row>
-    <row r="84" spans="2:19" ht="24.95" customHeight="1">
+    <row r="84" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="125"/>
       <c r="C84" s="125"/>
       <c r="D84" s="53" t="s">
@@ -11571,7 +11570,7 @@
       </c>
       <c r="S84" s="86"/>
     </row>
-    <row r="85" spans="2:19" ht="24.95" customHeight="1">
+    <row r="85" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="125"/>
       <c r="C85" s="125"/>
       <c r="D85" s="53" t="s">
@@ -11621,7 +11620,7 @@
       </c>
       <c r="S85" s="86"/>
     </row>
-    <row r="86" spans="2:19" ht="24.95" customHeight="1">
+    <row r="86" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="125"/>
       <c r="C86" s="125"/>
       <c r="D86" s="53" t="s">
@@ -11671,7 +11670,7 @@
       </c>
       <c r="S86" s="86"/>
     </row>
-    <row r="87" spans="2:19" ht="24.95" customHeight="1">
+    <row r="87" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="125"/>
       <c r="C87" s="125"/>
       <c r="D87" s="53" t="s">
@@ -11721,7 +11720,7 @@
       </c>
       <c r="S87" s="86"/>
     </row>
-    <row r="88" spans="2:19" ht="24.95" customHeight="1">
+    <row r="88" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="125"/>
       <c r="C88" s="125"/>
       <c r="D88" s="114" t="s">
@@ -11767,7 +11766,7 @@
       <c r="R88" s="114"/>
       <c r="S88" s="114"/>
     </row>
-    <row r="89" spans="2:19" ht="24.95" customHeight="1">
+    <row r="89" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="125"/>
       <c r="C89" s="125"/>
       <c r="D89" s="114" t="s">
@@ -11809,7 +11808,7 @@
       <c r="R89" s="114"/>
       <c r="S89" s="114"/>
     </row>
-    <row r="90" spans="2:19" ht="24.95" customHeight="1">
+    <row r="90" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="125"/>
       <c r="C90" s="125"/>
       <c r="D90" s="114" t="s">
@@ -11851,7 +11850,7 @@
       <c r="R90" s="114"/>
       <c r="S90" s="114"/>
     </row>
-    <row r="91" spans="2:19" ht="24.95" customHeight="1">
+    <row r="91" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="125"/>
       <c r="C91" s="125"/>
       <c r="D91" s="114" t="s">
@@ -11895,7 +11894,7 @@
       <c r="R91" s="114"/>
       <c r="S91" s="114"/>
     </row>
-    <row r="92" spans="2:19" ht="24.95" customHeight="1">
+    <row r="92" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="125"/>
       <c r="C92" s="125"/>
       <c r="D92" s="114" t="s">
@@ -11937,7 +11936,7 @@
       <c r="R92" s="114"/>
       <c r="S92" s="114"/>
     </row>
-    <row r="93" spans="2:19" ht="24.95" customHeight="1">
+    <row r="93" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="125"/>
       <c r="C93" s="125"/>
       <c r="D93" s="114" t="s">
@@ -11979,7 +11978,7 @@
       <c r="R93" s="114"/>
       <c r="S93" s="114"/>
     </row>
-    <row r="94" spans="2:19" ht="24.95" customHeight="1">
+    <row r="94" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="125"/>
       <c r="C94" s="125"/>
       <c r="D94" s="114" t="s">
@@ -12021,7 +12020,7 @@
       <c r="R94" s="114"/>
       <c r="S94" s="114"/>
     </row>
-    <row r="95" spans="2:19" ht="24.95" customHeight="1">
+    <row r="95" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="125"/>
       <c r="C95" s="125"/>
       <c r="D95" s="114" t="s">
@@ -12063,7 +12062,7 @@
       <c r="R95" s="114"/>
       <c r="S95" s="114"/>
     </row>
-    <row r="96" spans="2:19" ht="24.95" customHeight="1">
+    <row r="96" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="125"/>
       <c r="C96" s="125"/>
       <c r="D96" s="54" t="s">
@@ -12113,7 +12112,7 @@
       </c>
       <c r="S96" s="87"/>
     </row>
-    <row r="97" spans="2:19" ht="24.95" customHeight="1">
+    <row r="97" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="125"/>
       <c r="C97" s="125"/>
       <c r="D97" s="54" t="s">
@@ -12165,7 +12164,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="98" spans="2:19" ht="24.95" customHeight="1">
+    <row r="98" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="125"/>
       <c r="C98" s="125"/>
       <c r="D98" s="54" t="s">
@@ -12217,7 +12216,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="99" spans="2:19" ht="24.95" customHeight="1">
+    <row r="99" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="125"/>
       <c r="C99" s="125"/>
       <c r="D99" s="54" t="s">
@@ -12255,7 +12254,7 @@
       <c r="R99" s="87"/>
       <c r="S99" s="87"/>
     </row>
-    <row r="100" spans="2:19" ht="24.95" customHeight="1">
+    <row r="100" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="125"/>
       <c r="C100" s="125"/>
       <c r="D100" s="54" t="s">
@@ -12303,7 +12302,7 @@
       <c r="R100" s="87"/>
       <c r="S100" s="87"/>
     </row>
-    <row r="101" spans="2:19" ht="24.95" customHeight="1">
+    <row r="101" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="125"/>
       <c r="C101" s="125"/>
       <c r="D101" s="54" t="s">
@@ -12351,7 +12350,7 @@
       <c r="R101" s="87"/>
       <c r="S101" s="87"/>
     </row>
-    <row r="102" spans="2:19" ht="24.95" customHeight="1">
+    <row r="102" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="125"/>
       <c r="C102" s="125"/>
       <c r="D102" s="55" t="s">
@@ -12403,7 +12402,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="103" spans="2:19" ht="24.95" customHeight="1">
+    <row r="103" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="125"/>
       <c r="C103" s="125"/>
       <c r="D103" s="56" t="s">
@@ -12453,7 +12452,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="104" spans="2:19" ht="24.95" customHeight="1">
+    <row r="104" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="125"/>
       <c r="C104" s="125"/>
       <c r="D104" s="56" t="s">
@@ -12503,7 +12502,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="105" spans="2:19" ht="24.95" customHeight="1">
+    <row r="105" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="125"/>
       <c r="C105" s="125"/>
       <c r="D105" s="56" t="s">
@@ -12553,7 +12552,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="106" spans="2:19" ht="24.95" customHeight="1">
+    <row r="106" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="125"/>
       <c r="C106" s="125"/>
       <c r="D106" s="56" t="s">
@@ -12599,7 +12598,7 @@
       <c r="R106" s="91"/>
       <c r="S106" s="91"/>
     </row>
-    <row r="107" spans="2:19" ht="24.95" customHeight="1">
+    <row r="107" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="125"/>
       <c r="C107" s="125"/>
       <c r="D107" s="56" t="s">
@@ -12649,7 +12648,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="108" spans="2:19" ht="24.95" customHeight="1">
+    <row r="108" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="125"/>
       <c r="C108" s="125"/>
       <c r="D108" s="56" t="s">
@@ -12699,7 +12698,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="109" spans="2:19" ht="24.95" customHeight="1">
+    <row r="109" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="125"/>
       <c r="C109" s="125"/>
       <c r="D109" s="56" t="s">
@@ -12749,7 +12748,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="110" spans="2:19" ht="24.95" customHeight="1">
+    <row r="110" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="125"/>
       <c r="C110" s="125"/>
       <c r="D110" s="56" t="s">
@@ -12795,7 +12794,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="111" spans="2:19" ht="24.95" customHeight="1">
+    <row r="111" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="125"/>
       <c r="C111" s="125"/>
       <c r="D111" s="56" t="s">
@@ -12839,7 +12838,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="112" spans="2:19" ht="24.95" customHeight="1">
+    <row r="112" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="125"/>
       <c r="C112" s="125"/>
       <c r="D112" s="56" t="s">
@@ -12883,7 +12882,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="113" spans="2:19" ht="24.95" customHeight="1">
+    <row r="113" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="125"/>
       <c r="C113" s="125"/>
       <c r="D113" s="56" t="s">
@@ -12929,7 +12928,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="114" spans="2:19" ht="24.95" customHeight="1">
+    <row r="114" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="125"/>
       <c r="C114" s="125"/>
       <c r="D114" s="56" t="s">
@@ -12975,7 +12974,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="115" spans="2:19" ht="24.95" customHeight="1">
+    <row r="115" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="125"/>
       <c r="C115" s="125"/>
       <c r="D115" s="56" t="s">
@@ -13021,7 +13020,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="116" spans="2:19" ht="24.95" customHeight="1">
+    <row r="116" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="125"/>
       <c r="C116" s="125"/>
       <c r="D116" s="56" t="s">
@@ -13067,7 +13066,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="117" spans="2:19" ht="24.95" customHeight="1">
+    <row r="117" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="125"/>
       <c r="C117" s="125"/>
       <c r="D117" s="56" t="s">
@@ -13113,7 +13112,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="118" spans="2:19" ht="24.95" customHeight="1">
+    <row r="118" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="125"/>
       <c r="C118" s="125"/>
       <c r="D118" s="56" t="s">
@@ -13159,7 +13158,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="119" spans="2:19" ht="24.95" customHeight="1">
+    <row r="119" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="125"/>
       <c r="C119" s="125"/>
       <c r="D119" s="56" t="s">
@@ -13207,7 +13206,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="120" spans="2:19" ht="24.95" customHeight="1">
+    <row r="120" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="125"/>
       <c r="C120" s="125"/>
       <c r="D120" s="56" t="s">
@@ -13255,7 +13254,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="121" spans="2:19" ht="24.95" customHeight="1">
+    <row r="121" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="125"/>
       <c r="C121" s="125"/>
       <c r="D121" s="56" t="s">
@@ -13303,7 +13302,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="122" spans="2:19" ht="24.95" customHeight="1">
+    <row r="122" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="125"/>
       <c r="C122" s="125"/>
       <c r="D122" s="56" t="s">
@@ -13351,7 +13350,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="123" spans="2:19" ht="24.95" customHeight="1">
+    <row r="123" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="125"/>
       <c r="C123" s="125"/>
       <c r="D123" s="56" t="s">
@@ -13399,7 +13398,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="124" spans="2:19" ht="24.95" customHeight="1">
+    <row r="124" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="125"/>
       <c r="C124" s="125"/>
       <c r="D124" s="56" t="s">
@@ -13447,7 +13446,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="125" spans="2:19" ht="24.95" customHeight="1">
+    <row r="125" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="125"/>
       <c r="C125" s="125"/>
       <c r="D125" s="56" t="s">
@@ -13495,7 +13494,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="126" spans="2:19" ht="24.95" customHeight="1">
+    <row r="126" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="125"/>
       <c r="C126" s="125"/>
       <c r="D126" s="56" t="s">
@@ -13543,7 +13542,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="127" spans="2:19" ht="24.95" customHeight="1">
+    <row r="127" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="125"/>
       <c r="C127" s="125"/>
       <c r="D127" s="56" t="s">
@@ -13591,7 +13590,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="128" spans="2:19" ht="24.95" customHeight="1">
+    <row r="128" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="125"/>
       <c r="C128" s="125"/>
       <c r="D128" s="56" t="s">
@@ -13639,7 +13638,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="129" spans="2:19" ht="24.95" customHeight="1">
+    <row r="129" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="125"/>
       <c r="C129" s="125"/>
       <c r="D129" s="56" t="s">
@@ -13687,7 +13686,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="130" spans="2:19" ht="24.95" customHeight="1">
+    <row r="130" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="125"/>
       <c r="C130" s="125"/>
       <c r="D130" s="56" t="s">
@@ -13735,7 +13734,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="131" spans="2:19" ht="24.95" customHeight="1">
+    <row r="131" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="125"/>
       <c r="C131" s="125"/>
       <c r="D131" s="56" t="s">
@@ -13783,7 +13782,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="132" spans="2:19" ht="24.95" customHeight="1">
+    <row r="132" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="125"/>
       <c r="C132" s="125"/>
       <c r="D132" s="56" t="s">
@@ -13831,7 +13830,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="133" spans="2:19" ht="24.95" customHeight="1">
+    <row r="133" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="125"/>
       <c r="C133" s="125"/>
       <c r="D133" s="56" t="s">
@@ -13879,7 +13878,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="134" spans="2:19" ht="24.95" customHeight="1">
+    <row r="134" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="125"/>
       <c r="C134" s="125"/>
       <c r="D134" s="56" t="s">
@@ -13927,7 +13926,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="135" spans="2:19" ht="24.95" customHeight="1">
+    <row r="135" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="125"/>
       <c r="C135" s="125"/>
       <c r="D135" s="56" t="s">
@@ -13975,7 +13974,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="136" spans="2:19" ht="24.95" customHeight="1">
+    <row r="136" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="125"/>
       <c r="C136" s="125"/>
       <c r="D136" s="56" t="s">
@@ -14023,7 +14022,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="137" spans="2:19" ht="24.95" customHeight="1">
+    <row r="137" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="125"/>
       <c r="C137" s="125"/>
       <c r="D137" s="56" t="s">
@@ -14071,7 +14070,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="138" spans="2:19" ht="24.95" customHeight="1">
+    <row r="138" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="125"/>
       <c r="C138" s="125"/>
       <c r="D138" s="56" t="s">
@@ -14119,7 +14118,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="139" spans="2:19" ht="24.95" customHeight="1">
+    <row r="139" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="125"/>
       <c r="C139" s="125"/>
       <c r="D139" s="56" t="s">
@@ -14167,7 +14166,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="140" spans="2:19" ht="24.95" customHeight="1">
+    <row r="140" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="125"/>
       <c r="C140" s="125"/>
       <c r="D140" s="56" t="s">
@@ -14215,7 +14214,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="141" spans="2:19" ht="24.95" customHeight="1">
+    <row r="141" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="125"/>
       <c r="C141" s="125"/>
       <c r="D141" s="56" t="s">
@@ -14263,7 +14262,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="142" spans="2:19" ht="24.95" customHeight="1">
+    <row r="142" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="125"/>
       <c r="C142" s="125"/>
       <c r="D142" s="56" t="s">
@@ -14311,7 +14310,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="143" spans="2:19" ht="24.95" customHeight="1">
+    <row r="143" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="125"/>
       <c r="C143" s="125"/>
       <c r="D143" s="56" t="s">
@@ -14359,7 +14358,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="144" spans="2:19" ht="24.95" customHeight="1">
+    <row r="144" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="125"/>
       <c r="C144" s="125"/>
       <c r="D144" s="56" t="s">
@@ -14407,7 +14406,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="145" spans="2:19" ht="24.95" customHeight="1">
+    <row r="145" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="125"/>
       <c r="C145" s="125"/>
       <c r="D145" s="56" t="s">
@@ -14455,7 +14454,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="146" spans="2:19" ht="24.95" customHeight="1">
+    <row r="146" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="125"/>
       <c r="C146" s="125"/>
       <c r="D146" s="56" t="s">
@@ -14503,7 +14502,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="147" spans="2:19" ht="24.95" customHeight="1">
+    <row r="147" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="125"/>
       <c r="C147" s="125"/>
       <c r="D147" s="56" t="s">
@@ -14547,7 +14546,7 @@
       <c r="R147" s="91"/>
       <c r="S147" s="91"/>
     </row>
-    <row r="148" spans="2:19" ht="24.95" customHeight="1">
+    <row r="148" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="125"/>
       <c r="C148" s="125"/>
       <c r="D148" s="56" t="s">
@@ -14595,7 +14594,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="149" spans="2:19" ht="24.95" customHeight="1">
+    <row r="149" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="125"/>
       <c r="C149" s="125"/>
       <c r="D149" s="56" t="s">
@@ -14639,7 +14638,7 @@
       <c r="R149" s="91"/>
       <c r="S149" s="91"/>
     </row>
-    <row r="150" spans="2:19" ht="24.95" customHeight="1">
+    <row r="150" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="125"/>
       <c r="C150" s="125"/>
       <c r="D150" s="56" t="s">
@@ -14687,7 +14686,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="151" spans="2:19" ht="24.95" customHeight="1">
+    <row r="151" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="125"/>
       <c r="C151" s="125"/>
       <c r="D151" s="56" t="s">
@@ -14735,7 +14734,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="152" spans="2:19" ht="24.95" customHeight="1">
+    <row r="152" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="125"/>
       <c r="C152" s="125"/>
       <c r="D152" s="56" t="s">
@@ -14783,7 +14782,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="153" spans="2:19" ht="24.95" customHeight="1">
+    <row r="153" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="125"/>
       <c r="C153" s="125"/>
       <c r="D153" s="56" t="s">
@@ -14831,7 +14830,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="154" spans="2:19" ht="24.95" customHeight="1">
+    <row r="154" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="125"/>
       <c r="C154" s="125"/>
       <c r="D154" s="56" t="s">
@@ -14879,7 +14878,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="155" spans="2:19" ht="24.95" customHeight="1">
+    <row r="155" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="125"/>
       <c r="C155" s="125"/>
       <c r="D155" s="56" t="s">
@@ -14927,7 +14926,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="156" spans="2:19" ht="24.95" customHeight="1">
+    <row r="156" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="125"/>
       <c r="C156" s="125"/>
       <c r="D156" s="56" t="s">
@@ -14975,7 +14974,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="157" spans="2:19" ht="24.95" customHeight="1">
+    <row r="157" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="125"/>
       <c r="C157" s="125"/>
       <c r="D157" s="56" t="s">
@@ -15023,7 +15022,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="158" spans="2:19" ht="24.95" customHeight="1">
+    <row r="158" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="125"/>
       <c r="C158" s="125"/>
       <c r="D158" s="56" t="s">
@@ -15071,7 +15070,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="159" spans="2:19" ht="24.95" customHeight="1">
+    <row r="159" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="125"/>
       <c r="C159" s="125"/>
       <c r="D159" s="56" t="s">
@@ -15119,7 +15118,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="160" spans="2:19" ht="24.95" customHeight="1">
+    <row r="160" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="125"/>
       <c r="C160" s="125"/>
       <c r="D160" s="56" t="s">
@@ -15167,7 +15166,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="161" spans="2:19" ht="24.95" customHeight="1">
+    <row r="161" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="125"/>
       <c r="C161" s="125"/>
       <c r="D161" s="56" t="s">
@@ -15215,7 +15214,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="162" spans="2:19" ht="24.95" customHeight="1">
+    <row r="162" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="125"/>
       <c r="C162" s="125"/>
       <c r="D162" s="56" t="s">
@@ -15263,7 +15262,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="163" spans="2:19" ht="24.95" customHeight="1">
+    <row r="163" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="125"/>
       <c r="C163" s="125"/>
       <c r="D163" s="56" t="s">
@@ -15307,7 +15306,7 @@
       <c r="R163" s="91"/>
       <c r="S163" s="91"/>
     </row>
-    <row r="164" spans="2:19" ht="24.95" customHeight="1">
+    <row r="164" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="125"/>
       <c r="C164" s="125"/>
       <c r="D164" s="56" t="s">
@@ -15355,7 +15354,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="165" spans="2:19" ht="24.95" customHeight="1">
+    <row r="165" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="125"/>
       <c r="C165" s="125"/>
       <c r="D165" s="56" t="s">
@@ -15403,7 +15402,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="166" spans="2:19" ht="24.95" customHeight="1">
+    <row r="166" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="125"/>
       <c r="C166" s="125"/>
       <c r="D166" s="56" t="s">
@@ -15451,7 +15450,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="167" spans="2:19" ht="24.95" customHeight="1">
+    <row r="167" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="125"/>
       <c r="C167" s="125"/>
       <c r="D167" s="56" t="s">
@@ -15499,7 +15498,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="168" spans="2:19" ht="24.95" customHeight="1">
+    <row r="168" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="125"/>
       <c r="C168" s="125"/>
       <c r="D168" s="56" t="s">
@@ -15547,7 +15546,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="169" spans="2:19" ht="24.95" customHeight="1">
+    <row r="169" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="125"/>
       <c r="C169" s="125"/>
       <c r="D169" s="56" t="s">
@@ -15595,7 +15594,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="170" spans="2:19" ht="24.95" customHeight="1">
+    <row r="170" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="125"/>
       <c r="C170" s="125"/>
       <c r="D170" s="56" t="s">
@@ -15643,7 +15642,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="171" spans="2:19" ht="24.95" customHeight="1">
+    <row r="171" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="125"/>
       <c r="C171" s="125"/>
       <c r="D171" s="56" t="s">
@@ -15693,7 +15692,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="172" spans="2:19" ht="24.95" customHeight="1">
+    <row r="172" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="125"/>
       <c r="C172" s="125"/>
       <c r="D172" s="56" t="s">
@@ -15743,7 +15742,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="173" spans="2:19" ht="24.95" customHeight="1">
+    <row r="173" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="125"/>
       <c r="C173" s="125"/>
       <c r="D173" s="56" t="s">
@@ -15793,7 +15792,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="174" spans="2:19" ht="24.95" customHeight="1">
+    <row r="174" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="125"/>
       <c r="C174" s="125"/>
       <c r="D174" s="56" t="s">
@@ -15843,7 +15842,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="175" spans="2:19" ht="24.95" customHeight="1">
+    <row r="175" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="125"/>
       <c r="C175" s="125"/>
       <c r="D175" s="56" t="s">
@@ -15893,7 +15892,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="176" spans="2:19" ht="24.95" customHeight="1">
+    <row r="176" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="125"/>
       <c r="C176" s="125"/>
       <c r="D176" s="56" t="s">
@@ -15943,7 +15942,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="177" spans="2:19" ht="24.95" customHeight="1">
+    <row r="177" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="125"/>
       <c r="C177" s="125"/>
       <c r="D177" s="56" t="s">
@@ -15993,7 +15992,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="178" spans="2:19" ht="24.95" customHeight="1">
+    <row r="178" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="125"/>
       <c r="C178" s="125"/>
       <c r="D178" s="56" t="s">
@@ -16043,7 +16042,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="179" spans="2:19" ht="24.95" customHeight="1">
+    <row r="179" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="125"/>
       <c r="C179" s="125"/>
       <c r="D179" s="56" t="s">
@@ -16093,7 +16092,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="180" spans="2:19" ht="24.95" customHeight="1">
+    <row r="180" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="125"/>
       <c r="C180" s="125"/>
       <c r="D180" s="56" t="s">
@@ -16141,7 +16140,7 @@
       </c>
       <c r="S180" s="91"/>
     </row>
-    <row r="181" spans="2:19" ht="24.95" customHeight="1">
+    <row r="181" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="125"/>
       <c r="C181" s="125"/>
       <c r="D181" s="56" t="s">
@@ -16189,7 +16188,7 @@
       </c>
       <c r="S181" s="91"/>
     </row>
-    <row r="182" spans="2:19" ht="24.95" customHeight="1">
+    <row r="182" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="125"/>
       <c r="C182" s="125"/>
       <c r="D182" s="56" t="s">
@@ -16237,7 +16236,7 @@
       </c>
       <c r="S182" s="91"/>
     </row>
-    <row r="183" spans="2:19" ht="24.95" customHeight="1">
+    <row r="183" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="125"/>
       <c r="C183" s="125"/>
       <c r="D183" s="56" t="s">
@@ -16285,7 +16284,7 @@
       </c>
       <c r="S183" s="91"/>
     </row>
-    <row r="184" spans="2:19" ht="24.95" customHeight="1">
+    <row r="184" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="125"/>
       <c r="C184" s="125"/>
       <c r="D184" s="56" t="s">
@@ -16333,7 +16332,7 @@
       </c>
       <c r="S184" s="91"/>
     </row>
-    <row r="185" spans="2:19" ht="24.95" customHeight="1">
+    <row r="185" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="125"/>
       <c r="C185" s="125"/>
       <c r="D185" s="56" t="s">
@@ -16381,7 +16380,7 @@
       </c>
       <c r="S185" s="91"/>
     </row>
-    <row r="186" spans="2:19" ht="24.95" customHeight="1">
+    <row r="186" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="125"/>
       <c r="C186" s="125"/>
       <c r="D186" s="56" t="s">
@@ -16429,7 +16428,7 @@
       </c>
       <c r="S186" s="91"/>
     </row>
-    <row r="187" spans="2:19" ht="24.95" customHeight="1">
+    <row r="187" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="125"/>
       <c r="C187" s="125"/>
       <c r="D187" s="56" t="s">
@@ -16477,7 +16476,7 @@
       </c>
       <c r="S187" s="91"/>
     </row>
-    <row r="188" spans="2:19" ht="24.95" customHeight="1">
+    <row r="188" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="125"/>
       <c r="C188" s="125"/>
       <c r="D188" s="57" t="s">
@@ -16525,7 +16524,7 @@
       </c>
       <c r="S188" s="93"/>
     </row>
-    <row r="189" spans="2:19" ht="24.95" customHeight="1">
+    <row r="189" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="125"/>
       <c r="C189" s="125"/>
       <c r="D189" s="57" t="s">
@@ -16573,7 +16572,7 @@
       </c>
       <c r="S189" s="93"/>
     </row>
-    <row r="190" spans="2:19" ht="24.95" customHeight="1">
+    <row r="190" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="125"/>
       <c r="C190" s="125"/>
       <c r="D190" s="57" t="s">
@@ -16621,7 +16620,7 @@
       </c>
       <c r="S190" s="93"/>
     </row>
-    <row r="191" spans="2:19" ht="24.95" customHeight="1">
+    <row r="191" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="125"/>
       <c r="C191" s="125"/>
       <c r="D191" s="57" t="s">
@@ -16669,7 +16668,7 @@
       </c>
       <c r="S191" s="93"/>
     </row>
-    <row r="192" spans="2:19" ht="24.95" customHeight="1">
+    <row r="192" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="125"/>
       <c r="C192" s="125"/>
       <c r="D192" s="57" t="s">
@@ -16717,7 +16716,7 @@
       </c>
       <c r="S192" s="93"/>
     </row>
-    <row r="193" spans="2:19" ht="24.95" customHeight="1">
+    <row r="193" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="125"/>
       <c r="C193" s="125"/>
       <c r="D193" s="57" t="s">
@@ -16765,7 +16764,7 @@
       </c>
       <c r="S193" s="93"/>
     </row>
-    <row r="194" spans="2:19" ht="24.95" customHeight="1">
+    <row r="194" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="125"/>
       <c r="C194" s="125"/>
       <c r="D194" s="57" t="s">
@@ -16813,7 +16812,7 @@
       </c>
       <c r="S194" s="93"/>
     </row>
-    <row r="195" spans="2:19" ht="24.95" customHeight="1">
+    <row r="195" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="125"/>
       <c r="C195" s="125"/>
       <c r="D195" s="57" t="s">
@@ -16861,7 +16860,7 @@
       </c>
       <c r="S195" s="93"/>
     </row>
-    <row r="196" spans="2:19" ht="24.95" customHeight="1">
+    <row r="196" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="125"/>
       <c r="C196" s="125"/>
       <c r="D196" s="57" t="s">
@@ -16909,7 +16908,7 @@
       </c>
       <c r="S196" s="93"/>
     </row>
-    <row r="197" spans="2:19" ht="24.95" customHeight="1">
+    <row r="197" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="125"/>
       <c r="C197" s="125"/>
       <c r="D197" s="57" t="s">
@@ -16957,7 +16956,7 @@
       </c>
       <c r="S197" s="93"/>
     </row>
-    <row r="198" spans="2:19" ht="24.95" customHeight="1">
+    <row r="198" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="125"/>
       <c r="C198" s="125"/>
       <c r="D198" s="57" t="s">
@@ -17005,7 +17004,7 @@
       </c>
       <c r="S198" s="93"/>
     </row>
-    <row r="199" spans="2:19" ht="24.95" customHeight="1">
+    <row r="199" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="125"/>
       <c r="C199" s="125"/>
       <c r="D199" s="57" t="s">
@@ -17053,7 +17052,7 @@
       </c>
       <c r="S199" s="93"/>
     </row>
-    <row r="200" spans="2:19" ht="24.95" customHeight="1">
+    <row r="200" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="125"/>
       <c r="C200" s="125"/>
       <c r="D200" s="57" t="s">
@@ -17101,7 +17100,7 @@
       </c>
       <c r="S200" s="93"/>
     </row>
-    <row r="201" spans="2:19" ht="24.95" customHeight="1">
+    <row r="201" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="125"/>
       <c r="C201" s="125"/>
       <c r="D201" s="57" t="s">
@@ -17149,7 +17148,7 @@
       </c>
       <c r="S201" s="93"/>
     </row>
-    <row r="202" spans="2:19" ht="24.95" customHeight="1">
+    <row r="202" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="125"/>
       <c r="C202" s="125"/>
       <c r="D202" s="57" t="s">
@@ -17197,7 +17196,7 @@
       </c>
       <c r="S202" s="93"/>
     </row>
-    <row r="203" spans="2:19" ht="24.95" customHeight="1">
+    <row r="203" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="125"/>
       <c r="C203" s="125"/>
       <c r="D203" s="57" t="s">
@@ -17245,7 +17244,7 @@
       </c>
       <c r="S203" s="93"/>
     </row>
-    <row r="204" spans="2:19" ht="24.95" customHeight="1">
+    <row r="204" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="125"/>
       <c r="C204" s="125"/>
       <c r="D204" s="57" t="s">
@@ -17293,7 +17292,7 @@
       </c>
       <c r="S204" s="93"/>
     </row>
-    <row r="205" spans="2:19" ht="24.95" customHeight="1">
+    <row r="205" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="125"/>
       <c r="C205" s="125"/>
       <c r="D205" s="57" t="s">
@@ -17341,7 +17340,7 @@
       </c>
       <c r="S205" s="93"/>
     </row>
-    <row r="206" spans="2:19" ht="24.95" customHeight="1">
+    <row r="206" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="125"/>
       <c r="C206" s="125"/>
       <c r="D206" s="57" t="s">
@@ -17389,7 +17388,7 @@
       </c>
       <c r="S206" s="93"/>
     </row>
-    <row r="207" spans="2:19" ht="24.95" customHeight="1">
+    <row r="207" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="125"/>
       <c r="C207" s="125"/>
       <c r="D207" s="57" t="s">
@@ -17437,7 +17436,7 @@
       </c>
       <c r="S207" s="93"/>
     </row>
-    <row r="208" spans="2:19" ht="24.95" customHeight="1">
+    <row r="208" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="125"/>
       <c r="C208" s="125"/>
       <c r="D208" s="57" t="s">
@@ -17485,7 +17484,7 @@
       </c>
       <c r="S208" s="93"/>
     </row>
-    <row r="209" spans="2:19" ht="24.95" customHeight="1">
+    <row r="209" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="125"/>
       <c r="C209" s="125"/>
       <c r="D209" s="57" t="s">
@@ -17533,7 +17532,7 @@
       </c>
       <c r="S209" s="93"/>
     </row>
-    <row r="210" spans="2:19" ht="24.95" customHeight="1">
+    <row r="210" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="125"/>
       <c r="C210" s="125"/>
       <c r="D210" s="57" t="s">
@@ -17581,7 +17580,7 @@
       </c>
       <c r="S210" s="93"/>
     </row>
-    <row r="211" spans="2:19" ht="24.95" customHeight="1">
+    <row r="211" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="125"/>
       <c r="C211" s="125"/>
       <c r="D211" s="58" t="s">
@@ -17623,7 +17622,7 @@
       <c r="R211" s="95"/>
       <c r="S211" s="95"/>
     </row>
-    <row r="212" spans="2:19" ht="24.95" customHeight="1">
+    <row r="212" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="125"/>
       <c r="C212" s="125"/>
       <c r="D212" s="58" t="s">
@@ -17673,7 +17672,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="213" spans="2:19" ht="24.95" customHeight="1">
+    <row r="213" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="125"/>
       <c r="C213" s="125"/>
       <c r="D213" s="58" t="s">
@@ -17723,7 +17722,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="214" spans="2:19" ht="24.95" customHeight="1">
+    <row r="214" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="125"/>
       <c r="C214" s="125"/>
       <c r="D214" s="58" t="s">
@@ -17773,7 +17772,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="215" spans="2:19" ht="24.95" customHeight="1">
+    <row r="215" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="125"/>
       <c r="C215" s="125"/>
       <c r="D215" s="58" t="s">
@@ -17819,7 +17818,7 @@
       </c>
       <c r="S215" s="95"/>
     </row>
-    <row r="216" spans="2:19" ht="24.95" customHeight="1">
+    <row r="216" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="125"/>
       <c r="C216" s="125"/>
       <c r="D216" s="58" t="s">
@@ -17865,7 +17864,7 @@
       </c>
       <c r="S216" s="95"/>
     </row>
-    <row r="217" spans="2:19" ht="24.95" customHeight="1">
+    <row r="217" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="125"/>
       <c r="C217" s="125"/>
       <c r="D217" s="58" t="s">
@@ -17911,7 +17910,7 @@
       </c>
       <c r="S217" s="95"/>
     </row>
-    <row r="218" spans="2:19" ht="24.95" customHeight="1">
+    <row r="218" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="125"/>
       <c r="C218" s="125"/>
       <c r="D218" s="58" t="s">
@@ -17957,7 +17956,7 @@
       </c>
       <c r="S218" s="95"/>
     </row>
-    <row r="219" spans="2:19" ht="24.95" customHeight="1">
+    <row r="219" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="125"/>
       <c r="C219" s="125"/>
       <c r="D219" s="58" t="s">
@@ -18003,7 +18002,7 @@
       </c>
       <c r="S219" s="95"/>
     </row>
-    <row r="220" spans="2:19" ht="24.95" customHeight="1">
+    <row r="220" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="125"/>
       <c r="C220" s="125"/>
       <c r="D220" s="58" t="s">
@@ -18049,7 +18048,7 @@
       </c>
       <c r="S220" s="95"/>
     </row>
-    <row r="221" spans="2:19" ht="24.95" customHeight="1">
+    <row r="221" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="125"/>
       <c r="C221" s="125"/>
       <c r="D221" s="58" t="s">
@@ -18095,7 +18094,7 @@
       </c>
       <c r="S221" s="95"/>
     </row>
-    <row r="222" spans="2:19" ht="24.95" customHeight="1">
+    <row r="222" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="125"/>
       <c r="C222" s="125"/>
       <c r="D222" s="58" t="s">
@@ -18141,7 +18140,7 @@
       </c>
       <c r="S222" s="95"/>
     </row>
-    <row r="223" spans="2:19" ht="24.95" customHeight="1">
+    <row r="223" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="125"/>
       <c r="C223" s="125"/>
       <c r="D223" s="58" t="s">
@@ -18187,7 +18186,7 @@
       </c>
       <c r="S223" s="95"/>
     </row>
-    <row r="224" spans="2:19" ht="24.95" customHeight="1">
+    <row r="224" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="125"/>
       <c r="C224" s="125"/>
       <c r="D224" s="58" t="s">
@@ -18235,7 +18234,7 @@
       </c>
       <c r="S224" s="95"/>
     </row>
-    <row r="225" spans="2:19" ht="24.95" customHeight="1">
+    <row r="225" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="125"/>
       <c r="C225" s="125"/>
       <c r="D225" s="58" t="s">
@@ -18283,7 +18282,7 @@
       </c>
       <c r="S225" s="95"/>
     </row>
-    <row r="226" spans="2:19" ht="24.95" customHeight="1">
+    <row r="226" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="125"/>
       <c r="C226" s="125"/>
       <c r="D226" s="58" t="s">
@@ -18331,7 +18330,7 @@
       </c>
       <c r="S226" s="95"/>
     </row>
-    <row r="227" spans="2:19" ht="24.95" customHeight="1">
+    <row r="227" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="125"/>
       <c r="C227" s="125"/>
       <c r="D227" s="58" t="s">
@@ -18379,7 +18378,7 @@
       </c>
       <c r="S227" s="95"/>
     </row>
-    <row r="228" spans="2:19" ht="24.95" customHeight="1">
+    <row r="228" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="125"/>
       <c r="C228" s="125"/>
       <c r="D228" s="58" t="s">
@@ -18427,7 +18426,7 @@
       </c>
       <c r="S228" s="95"/>
     </row>
-    <row r="229" spans="2:19" ht="24.95" customHeight="1">
+    <row r="229" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="125"/>
       <c r="C229" s="125"/>
       <c r="D229" s="58" t="s">
@@ -18475,7 +18474,7 @@
       </c>
       <c r="S229" s="95"/>
     </row>
-    <row r="230" spans="2:19" ht="24.95" customHeight="1">
+    <row r="230" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="125"/>
       <c r="C230" s="125"/>
       <c r="D230" s="58" t="s">
@@ -18523,7 +18522,7 @@
       </c>
       <c r="S230" s="95"/>
     </row>
-    <row r="231" spans="2:19" ht="24.95" customHeight="1">
+    <row r="231" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="125"/>
       <c r="C231" s="125"/>
       <c r="D231" s="58" t="s">
@@ -18571,7 +18570,7 @@
       </c>
       <c r="S231" s="95"/>
     </row>
-    <row r="232" spans="2:19" ht="24.95" customHeight="1">
+    <row r="232" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="125"/>
       <c r="C232" s="125"/>
       <c r="D232" s="58" t="s">
@@ -18617,7 +18616,7 @@
       </c>
       <c r="S232" s="95"/>
     </row>
-    <row r="233" spans="2:19" ht="24.95" customHeight="1">
+    <row r="233" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="125"/>
       <c r="C233" s="125"/>
       <c r="D233" s="58" t="s">
@@ -18663,7 +18662,7 @@
       </c>
       <c r="S233" s="95"/>
     </row>
-    <row r="234" spans="2:19" ht="24.95" customHeight="1">
+    <row r="234" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="125"/>
       <c r="C234" s="125"/>
       <c r="D234" s="58" t="s">
@@ -18709,7 +18708,7 @@
       </c>
       <c r="S234" s="95"/>
     </row>
-    <row r="235" spans="2:19" ht="24.95" customHeight="1">
+    <row r="235" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="125"/>
       <c r="C235" s="125"/>
       <c r="D235" s="58" t="s">
@@ -18755,7 +18754,7 @@
       </c>
       <c r="S235" s="95"/>
     </row>
-    <row r="236" spans="2:19" ht="24.95" customHeight="1">
+    <row r="236" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="125"/>
       <c r="C236" s="125"/>
       <c r="D236" s="58" t="s">
@@ -18801,7 +18800,7 @@
       </c>
       <c r="S236" s="95"/>
     </row>
-    <row r="237" spans="2:19" ht="24.95" customHeight="1">
+    <row r="237" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="125"/>
       <c r="C237" s="125"/>
       <c r="D237" s="58" t="s">
@@ -18847,7 +18846,7 @@
       </c>
       <c r="S237" s="95"/>
     </row>
-    <row r="238" spans="2:19" ht="24.95" customHeight="1">
+    <row r="238" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="125"/>
       <c r="C238" s="125"/>
       <c r="D238" s="58" t="s">
@@ -18893,7 +18892,7 @@
       </c>
       <c r="S238" s="95"/>
     </row>
-    <row r="239" spans="2:19" ht="24.95" customHeight="1">
+    <row r="239" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="125"/>
       <c r="C239" s="125"/>
       <c r="D239" s="58" t="s">
@@ -18939,7 +18938,7 @@
       </c>
       <c r="S239" s="95"/>
     </row>
-    <row r="240" spans="2:19" ht="24.95" customHeight="1">
+    <row r="240" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="125"/>
       <c r="C240" s="125"/>
       <c r="D240" s="58" t="s">
@@ -18985,7 +18984,7 @@
       </c>
       <c r="S240" s="95"/>
     </row>
-    <row r="241" spans="1:19" ht="24.95" customHeight="1">
+    <row r="241" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="125"/>
       <c r="C241" s="125"/>
       <c r="D241" s="58" t="s">
@@ -19031,7 +19030,7 @@
       </c>
       <c r="S241" s="95"/>
     </row>
-    <row r="242" spans="1:19" ht="24.95" customHeight="1">
+    <row r="242" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="125"/>
       <c r="C242" s="125"/>
       <c r="D242" s="58" t="s">
@@ -19077,7 +19076,7 @@
       </c>
       <c r="S242" s="95"/>
     </row>
-    <row r="243" spans="1:19" ht="24.95" customHeight="1">
+    <row r="243" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="125"/>
       <c r="C243" s="125"/>
       <c r="D243" s="58" t="s">
@@ -19123,7 +19122,7 @@
       </c>
       <c r="S243" s="95"/>
     </row>
-    <row r="244" spans="1:19" ht="24.95" customHeight="1">
+    <row r="244" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="125"/>
       <c r="C244" s="125"/>
       <c r="D244" s="58" t="s">
@@ -19169,7 +19168,7 @@
       </c>
       <c r="S244" s="95"/>
     </row>
-    <row r="245" spans="1:19" ht="24.95" customHeight="1">
+    <row r="245" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="125"/>
       <c r="C245" s="125"/>
       <c r="D245" s="58" t="s">
@@ -19215,7 +19214,7 @@
       </c>
       <c r="S245" s="95"/>
     </row>
-    <row r="246" spans="1:19" ht="24.95" customHeight="1">
+    <row r="246" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="125"/>
       <c r="C246" s="125"/>
       <c r="D246" s="58" t="s">
@@ -19261,7 +19260,7 @@
       </c>
       <c r="S246" s="95"/>
     </row>
-    <row r="247" spans="1:19" ht="24.95" customHeight="1">
+    <row r="247" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="125"/>
       <c r="C247" s="125"/>
       <c r="D247" s="58" t="s">
@@ -19309,7 +19308,7 @@
       </c>
       <c r="S247" s="95"/>
     </row>
-    <row r="248" spans="1:19" ht="24.95" customHeight="1">
+    <row r="248" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="125"/>
       <c r="C248" s="125"/>
       <c r="D248" s="59" t="s">
@@ -19359,7 +19358,7 @@
       </c>
       <c r="S248" s="97"/>
     </row>
-    <row r="249" spans="1:19" ht="24.95" customHeight="1">
+    <row r="249" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="125"/>
       <c r="C249" s="125"/>
       <c r="D249" s="59" t="s">
@@ -19409,7 +19408,7 @@
       </c>
       <c r="S249" s="97"/>
     </row>
-    <row r="250" spans="1:19" ht="24.95" customHeight="1">
+    <row r="250" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="125"/>
       <c r="C250" s="125"/>
       <c r="D250" s="59" t="s">
@@ -19459,7 +19458,7 @@
       </c>
       <c r="S250" s="97"/>
     </row>
-    <row r="251" spans="1:19" ht="24.95" customHeight="1">
+    <row r="251" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="125"/>
       <c r="C251" s="125"/>
       <c r="D251" s="59" t="s">
@@ -19509,7 +19508,7 @@
       </c>
       <c r="S251" s="97"/>
     </row>
-    <row r="252" spans="1:19" ht="24.95" customHeight="1">
+    <row r="252" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="125"/>
       <c r="C252" s="125"/>
       <c r="D252" s="59" t="s">
@@ -19559,7 +19558,7 @@
       </c>
       <c r="S252" s="97"/>
     </row>
-    <row r="253" spans="1:19" s="61" customFormat="1" ht="24.95" customHeight="1">
+    <row r="253" spans="1:19" s="61" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="73"/>
       <c r="B253" s="125"/>
       <c r="C253" s="125"/>
@@ -19608,7 +19607,7 @@
       </c>
       <c r="S253" s="99"/>
     </row>
-    <row r="254" spans="1:19" ht="24.95" customHeight="1">
+    <row r="254" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="125"/>
       <c r="C254" s="125"/>
       <c r="D254" s="62" t="s">
@@ -19656,7 +19655,7 @@
       <c r="R254" s="102"/>
       <c r="S254" s="102"/>
     </row>
-    <row r="255" spans="1:19" ht="24.95" customHeight="1">
+    <row r="255" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="125"/>
       <c r="C255" s="125"/>
       <c r="D255" s="62" t="s">
@@ -19704,7 +19703,7 @@
       <c r="R255" s="102"/>
       <c r="S255" s="102"/>
     </row>
-    <row r="256" spans="1:19" ht="24.95" customHeight="1">
+    <row r="256" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="125"/>
       <c r="C256" s="125"/>
       <c r="D256" s="62" t="s">
@@ -19752,7 +19751,7 @@
       <c r="R256" s="102"/>
       <c r="S256" s="102"/>
     </row>
-    <row r="257" spans="2:19" ht="24.95" customHeight="1">
+    <row r="257" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="125"/>
       <c r="C257" s="125"/>
       <c r="D257" s="62" t="s">
@@ -19792,7 +19791,7 @@
       </c>
       <c r="S257" s="102"/>
     </row>
-    <row r="258" spans="2:19" ht="24.95" customHeight="1">
+    <row r="258" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="125"/>
       <c r="C258" s="125"/>
       <c r="D258" s="62" t="s">
@@ -19838,7 +19837,7 @@
       <c r="R258" s="102"/>
       <c r="S258" s="102"/>
     </row>
-    <row r="259" spans="2:19" ht="24.95" customHeight="1">
+    <row r="259" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="125"/>
       <c r="C259" s="125"/>
       <c r="D259" s="63" t="s">
@@ -19874,7 +19873,7 @@
       <c r="R259" s="104"/>
       <c r="S259" s="104"/>
     </row>
-    <row r="260" spans="2:19" ht="24.95" customHeight="1">
+    <row r="260" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="125"/>
       <c r="C260" s="125"/>
       <c r="D260" s="63" t="s">
@@ -19918,7 +19917,7 @@
       <c r="R260" s="104"/>
       <c r="S260" s="104"/>
     </row>
-    <row r="261" spans="2:19" ht="24.95" customHeight="1">
+    <row r="261" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="125"/>
       <c r="C261" s="125"/>
       <c r="D261" s="63" t="s">
@@ -19964,7 +19963,7 @@
       <c r="R261" s="104"/>
       <c r="S261" s="104"/>
     </row>
-    <row r="262" spans="2:19" ht="24.95" customHeight="1">
+    <row r="262" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="125"/>
       <c r="C262" s="125"/>
       <c r="D262" s="63" t="s">
@@ -20008,7 +20007,7 @@
       <c r="R262" s="104"/>
       <c r="S262" s="104"/>
     </row>
-    <row r="263" spans="2:19" ht="24.95" customHeight="1">
+    <row r="263" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="125"/>
       <c r="C263" s="125"/>
       <c r="D263" s="63" t="s">
@@ -20056,7 +20055,7 @@
       </c>
       <c r="S263" s="104"/>
     </row>
-    <row r="264" spans="2:19" ht="24.95" customHeight="1">
+    <row r="264" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="125"/>
       <c r="C264" s="125"/>
       <c r="D264" s="63" t="s">
@@ -20102,7 +20101,7 @@
       <c r="R264" s="104"/>
       <c r="S264" s="104"/>
     </row>
-    <row r="265" spans="2:19" ht="24.95" customHeight="1">
+    <row r="265" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="125"/>
       <c r="C265" s="125"/>
       <c r="D265" s="63" t="s">
@@ -20148,7 +20147,7 @@
       <c r="R265" s="104"/>
       <c r="S265" s="104"/>
     </row>
-    <row r="266" spans="2:19" ht="24.95" customHeight="1">
+    <row r="266" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="125"/>
       <c r="C266" s="125"/>
       <c r="D266" s="64" t="s">
@@ -20190,7 +20189,7 @@
       </c>
       <c r="S266" s="107"/>
     </row>
-    <row r="267" spans="2:19" ht="24.95" customHeight="1">
+    <row r="267" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="125"/>
       <c r="C267" s="125"/>
       <c r="D267" s="64" t="s">
@@ -20232,7 +20231,7 @@
       </c>
       <c r="S267" s="107"/>
     </row>
-    <row r="268" spans="2:19" ht="24.95" customHeight="1">
+    <row r="268" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="125"/>
       <c r="C268" s="125"/>
       <c r="D268" s="64" t="s">
@@ -20278,7 +20277,7 @@
       </c>
       <c r="S268" s="107"/>
     </row>
-    <row r="269" spans="2:19" ht="24.95" customHeight="1">
+    <row r="269" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="125"/>
       <c r="C269" s="125"/>
       <c r="D269" s="65" t="s">
@@ -20328,7 +20327,7 @@
       </c>
       <c r="S269" s="109"/>
     </row>
-    <row r="270" spans="2:19" ht="24.95" customHeight="1">
+    <row r="270" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="125"/>
       <c r="C270" s="125"/>
       <c r="D270" s="65" t="s">
@@ -20376,7 +20375,7 @@
       <c r="R270" s="109"/>
       <c r="S270" s="109"/>
     </row>
-    <row r="271" spans="2:19" ht="24.95" customHeight="1">
+    <row r="271" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="125"/>
       <c r="C271" s="125"/>
       <c r="D271" s="65" t="s">
@@ -20424,7 +20423,7 @@
       <c r="R271" s="109"/>
       <c r="S271" s="109"/>
     </row>
-    <row r="272" spans="2:19" ht="24.95" customHeight="1">
+    <row r="272" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="125"/>
       <c r="C272" s="125"/>
       <c r="D272" s="65" t="s">
@@ -20472,7 +20471,7 @@
       <c r="R272" s="109"/>
       <c r="S272" s="109"/>
     </row>
-    <row r="273" spans="2:19" ht="24.95" customHeight="1">
+    <row r="273" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="125"/>
       <c r="C273" s="125"/>
       <c r="D273" s="65" t="s">
@@ -20520,7 +20519,7 @@
       <c r="R273" s="109"/>
       <c r="S273" s="109"/>
     </row>
-    <row r="274" spans="2:19" ht="24.95" customHeight="1">
+    <row r="274" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="125"/>
       <c r="C274" s="125"/>
       <c r="D274" s="66" t="s">
@@ -20568,7 +20567,7 @@
       </c>
       <c r="S274" s="111"/>
     </row>
-    <row r="275" spans="2:19" ht="24.95" customHeight="1">
+    <row r="275" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="125"/>
       <c r="C275" s="125"/>
       <c r="D275" s="66" t="s">
@@ -20616,7 +20615,7 @@
       </c>
       <c r="S275" s="111"/>
     </row>
-    <row r="276" spans="2:19" ht="24.95" customHeight="1">
+    <row r="276" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="125"/>
       <c r="C276" s="125"/>
       <c r="D276" s="66" t="s">
@@ -20664,7 +20663,7 @@
       </c>
       <c r="S276" s="111"/>
     </row>
-    <row r="277" spans="2:19" ht="24.95" customHeight="1">
+    <row r="277" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="125"/>
       <c r="C277" s="125"/>
       <c r="D277" s="66" t="s">
@@ -20712,7 +20711,7 @@
       </c>
       <c r="S277" s="111"/>
     </row>
-    <row r="278" spans="2:19" ht="24.95" customHeight="1">
+    <row r="278" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="125"/>
       <c r="C278" s="125"/>
       <c r="D278" s="66" t="s">
@@ -20760,7 +20759,7 @@
       </c>
       <c r="S278" s="111"/>
     </row>
-    <row r="279" spans="2:19" ht="24.95" customHeight="1">
+    <row r="279" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="125"/>
       <c r="C279" s="125"/>
       <c r="D279" s="66" t="s">
@@ -20808,7 +20807,7 @@
       </c>
       <c r="S279" s="111"/>
     </row>
-    <row r="280" spans="2:19" ht="24.95" customHeight="1">
+    <row r="280" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="125"/>
       <c r="C280" s="125"/>
       <c r="D280" s="66" t="s">
@@ -20856,7 +20855,7 @@
       </c>
       <c r="S280" s="111"/>
     </row>
-    <row r="281" spans="2:19" ht="24.95" customHeight="1">
+    <row r="281" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="125"/>
       <c r="C281" s="125"/>
       <c r="D281" s="66" t="s">
@@ -20904,7 +20903,7 @@
       </c>
       <c r="S281" s="111"/>
     </row>
-    <row r="282" spans="2:19" ht="24.95" customHeight="1">
+    <row r="282" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="125"/>
       <c r="C282" s="125"/>
       <c r="D282" s="66" t="s">
@@ -20952,7 +20951,7 @@
       </c>
       <c r="S282" s="111"/>
     </row>
-    <row r="283" spans="2:19" ht="24.95" customHeight="1">
+    <row r="283" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="125"/>
       <c r="C283" s="125"/>
       <c r="D283" s="66" t="s">
@@ -21000,7 +20999,7 @@
       </c>
       <c r="S283" s="111"/>
     </row>
-    <row r="284" spans="2:19" ht="24.95" customHeight="1">
+    <row r="284" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="125"/>
       <c r="C284" s="125"/>
       <c r="D284" s="66" t="s">
@@ -21048,7 +21047,7 @@
       </c>
       <c r="S284" s="111"/>
     </row>
-    <row r="285" spans="2:19" ht="24.95" customHeight="1">
+    <row r="285" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="125"/>
       <c r="C285" s="125"/>
       <c r="D285" s="67" t="s">
@@ -21094,7 +21093,7 @@
       </c>
       <c r="S285" s="113"/>
     </row>
-    <row r="286" spans="2:19" ht="24.95" customHeight="1">
+    <row r="286" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="125"/>
       <c r="C286" s="125"/>
       <c r="D286" s="67" t="s">
@@ -21136,7 +21135,7 @@
       </c>
       <c r="S286" s="113"/>
     </row>
-    <row r="287" spans="2:19" ht="24.95" customHeight="1">
+    <row r="287" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="125"/>
       <c r="C287" s="125"/>
       <c r="D287" s="67" t="s">
@@ -21180,7 +21179,7 @@
       </c>
       <c r="S287" s="113"/>
     </row>
-    <row r="288" spans="2:19" ht="24.95" customHeight="1">
+    <row r="288" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="125"/>
       <c r="C288" s="125"/>
       <c r="D288" s="67" t="s">
@@ -21224,7 +21223,7 @@
       </c>
       <c r="S288" s="113"/>
     </row>
-    <row r="289" spans="2:19" ht="24.95" customHeight="1">
+    <row r="289" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="125"/>
       <c r="C289" s="125"/>
       <c r="D289" s="67" t="s">
@@ -21268,7 +21267,7 @@
       </c>
       <c r="S289" s="113"/>
     </row>
-    <row r="290" spans="2:19" ht="24.95" customHeight="1">
+    <row r="290" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="125"/>
       <c r="C290" s="125"/>
       <c r="D290" s="67" t="s">
@@ -21306,7 +21305,7 @@
       </c>
       <c r="S290" s="113"/>
     </row>
-    <row r="291" spans="2:19" ht="24.95" customHeight="1">
+    <row r="291" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="125"/>
       <c r="C291" s="125"/>
       <c r="D291" s="67" t="s">
@@ -21346,7 +21345,7 @@
       </c>
       <c r="S291" s="113"/>
     </row>
-    <row r="292" spans="2:19" ht="24.95" customHeight="1">
+    <row r="292" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="125"/>
       <c r="C292" s="125"/>
       <c r="D292" s="67" t="s">
@@ -21388,7 +21387,7 @@
       </c>
       <c r="S292" s="113"/>
     </row>
-    <row r="293" spans="2:19" ht="24.95" customHeight="1">
+    <row r="293" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="125"/>
       <c r="C293" s="125"/>
       <c r="D293" s="67" t="s">
@@ -21428,7 +21427,7 @@
       </c>
       <c r="S293" s="113"/>
     </row>
-    <row r="294" spans="2:19" ht="24.95" customHeight="1">
+    <row r="294" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="125"/>
       <c r="C294" s="125"/>
       <c r="D294" s="67" t="s">
@@ -21468,7 +21467,7 @@
       </c>
       <c r="S294" s="113"/>
     </row>
-    <row r="295" spans="2:19" ht="24.95" customHeight="1">
+    <row r="295" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="125"/>
       <c r="C295" s="125"/>
       <c r="D295" s="67" t="s">
@@ -21510,7 +21509,7 @@
       </c>
       <c r="S295" s="113"/>
     </row>
-    <row r="296" spans="2:19" ht="24.95" customHeight="1">
+    <row r="296" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="125"/>
       <c r="C296" s="125"/>
       <c r="D296" s="67" t="s">
@@ -21552,7 +21551,7 @@
       </c>
       <c r="S296" s="113"/>
     </row>
-    <row r="297" spans="2:19" ht="24.95" customHeight="1">
+    <row r="297" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="125"/>
       <c r="C297" s="125"/>
       <c r="D297" s="67" t="s">
@@ -21592,7 +21591,7 @@
       </c>
       <c r="S297" s="113"/>
     </row>
-    <row r="298" spans="2:19" ht="24.95" customHeight="1">
+    <row r="298" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="125"/>
       <c r="C298" s="125"/>
       <c r="D298" s="67" t="s">
@@ -21630,7 +21629,7 @@
       </c>
       <c r="S298" s="113"/>
     </row>
-    <row r="299" spans="2:19" ht="24.95" customHeight="1">
+    <row r="299" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="125"/>
       <c r="C299" s="125"/>
       <c r="D299" s="67" t="s">
@@ -21670,7 +21669,7 @@
       </c>
       <c r="S299" s="113"/>
     </row>
-    <row r="300" spans="2:19" ht="24.95" customHeight="1">
+    <row r="300" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="125"/>
       <c r="C300" s="125"/>
       <c r="D300" s="67" t="s">
@@ -21708,7 +21707,7 @@
       </c>
       <c r="S300" s="113"/>
     </row>
-    <row r="301" spans="2:19" ht="24.95" customHeight="1">
+    <row r="301" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="125"/>
       <c r="C301" s="125"/>
       <c r="D301" s="67" t="s">
@@ -21752,7 +21751,7 @@
       </c>
       <c r="S301" s="113"/>
     </row>
-    <row r="302" spans="2:19" ht="24.95" customHeight="1">
+    <row r="302" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="125"/>
       <c r="C302" s="125"/>
       <c r="D302" s="67" t="s">
@@ -21792,7 +21791,7 @@
       </c>
       <c r="S302" s="113"/>
     </row>
-    <row r="303" spans="2:19" ht="24.95" customHeight="1">
+    <row r="303" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="125"/>
       <c r="C303" s="125"/>
       <c r="D303" s="67" t="s">
@@ -21830,7 +21829,7 @@
       </c>
       <c r="S303" s="113"/>
     </row>
-    <row r="304" spans="2:19" ht="24.95" customHeight="1">
+    <row r="304" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="125"/>
       <c r="C304" s="125"/>
       <c r="D304" s="67" t="s">
@@ -21868,7 +21867,7 @@
       </c>
       <c r="S304" s="113"/>
     </row>
-    <row r="305" spans="2:19" ht="24.95" customHeight="1">
+    <row r="305" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="125"/>
       <c r="C305" s="125"/>
       <c r="D305" s="67" t="s">
@@ -21910,7 +21909,7 @@
       </c>
       <c r="S305" s="113"/>
     </row>
-    <row r="306" spans="2:19" ht="24.95" customHeight="1">
+    <row r="306" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="125"/>
       <c r="C306" s="125"/>
       <c r="D306" s="67" t="s">
@@ -21952,7 +21951,7 @@
       </c>
       <c r="S306" s="113"/>
     </row>
-    <row r="307" spans="2:19" ht="24.95" customHeight="1">
+    <row r="307" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="125"/>
       <c r="C307" s="125"/>
       <c r="D307" s="67" t="s">
@@ -21992,7 +21991,7 @@
       </c>
       <c r="S307" s="113"/>
     </row>
-    <row r="308" spans="2:19" ht="24.95" customHeight="1">
+    <row r="308" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="125"/>
       <c r="C308" s="125"/>
       <c r="D308" s="67" t="s">
@@ -22034,7 +22033,7 @@
       </c>
       <c r="S308" s="113"/>
     </row>
-    <row r="309" spans="2:19" ht="24.95" customHeight="1">
+    <row r="309" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="125"/>
       <c r="C309" s="125"/>
       <c r="D309" s="67" t="s">
@@ -22076,7 +22075,7 @@
       </c>
       <c r="S309" s="113"/>
     </row>
-    <row r="310" spans="2:19" ht="24.95" customHeight="1">
+    <row r="310" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="125"/>
       <c r="C310" s="125"/>
       <c r="D310" s="67" t="s">
@@ -22118,747 +22117,747 @@
       </c>
       <c r="S310" s="113"/>
     </row>
-    <row r="311" spans="2:19" ht="24.95" customHeight="1">
+    <row r="311" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="125"/>
       <c r="C311" s="125"/>
     </row>
-    <row r="312" spans="2:19" ht="24.95" customHeight="1">
+    <row r="312" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="125"/>
       <c r="C312" s="125"/>
     </row>
-    <row r="313" spans="2:19" ht="24.95" customHeight="1">
+    <row r="313" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="125"/>
       <c r="C313" s="125"/>
     </row>
-    <row r="314" spans="2:19" ht="24.95" customHeight="1">
+    <row r="314" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="125"/>
       <c r="C314" s="125"/>
     </row>
-    <row r="315" spans="2:19" ht="24.95" customHeight="1">
+    <row r="315" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="125"/>
       <c r="C315" s="125"/>
     </row>
-    <row r="316" spans="2:19" ht="24.95" customHeight="1">
+    <row r="316" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="125"/>
       <c r="C316" s="125"/>
     </row>
-    <row r="317" spans="2:19" ht="24.95" customHeight="1">
+    <row r="317" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="125"/>
       <c r="C317" s="125"/>
     </row>
-    <row r="318" spans="2:19" ht="24.95" customHeight="1">
+    <row r="318" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="125"/>
       <c r="C318" s="125"/>
     </row>
-    <row r="319" spans="2:19" ht="24.95" customHeight="1">
+    <row r="319" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="125"/>
       <c r="C319" s="125"/>
     </row>
-    <row r="320" spans="2:19" ht="24.95" customHeight="1">
+    <row r="320" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="125"/>
       <c r="C320" s="125"/>
     </row>
-    <row r="321" spans="2:3" ht="24.95" customHeight="1">
+    <row r="321" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="125"/>
       <c r="C321" s="125"/>
     </row>
-    <row r="322" spans="2:3" ht="24.95" customHeight="1">
+    <row r="322" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="125"/>
       <c r="C322" s="125"/>
     </row>
-    <row r="323" spans="2:3" ht="24.95" customHeight="1">
+    <row r="323" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="125"/>
       <c r="C323" s="125"/>
     </row>
-    <row r="324" spans="2:3" ht="24.95" customHeight="1">
+    <row r="324" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="125"/>
       <c r="C324" s="125"/>
     </row>
-    <row r="325" spans="2:3" ht="24.95" customHeight="1">
+    <row r="325" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="125"/>
       <c r="C325" s="125"/>
     </row>
-    <row r="326" spans="2:3" ht="24.95" customHeight="1">
+    <row r="326" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="125"/>
       <c r="C326" s="125"/>
     </row>
-    <row r="327" spans="2:3" ht="24.95" customHeight="1">
+    <row r="327" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="125"/>
       <c r="C327" s="125"/>
     </row>
-    <row r="328" spans="2:3" ht="24.95" customHeight="1">
+    <row r="328" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="125"/>
       <c r="C328" s="125"/>
     </row>
-    <row r="329" spans="2:3" ht="24.95" customHeight="1">
+    <row r="329" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="125"/>
       <c r="C329" s="125"/>
     </row>
-    <row r="330" spans="2:3" ht="24.95" customHeight="1">
+    <row r="330" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="125"/>
       <c r="C330" s="125"/>
     </row>
-    <row r="331" spans="2:3" ht="24.95" customHeight="1">
+    <row r="331" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="125"/>
       <c r="C331" s="125"/>
     </row>
-    <row r="332" spans="2:3" ht="24.95" customHeight="1">
+    <row r="332" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="125"/>
       <c r="C332" s="125"/>
     </row>
-    <row r="333" spans="2:3" ht="24.95" customHeight="1">
+    <row r="333" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="125"/>
       <c r="C333" s="125"/>
     </row>
-    <row r="334" spans="2:3" ht="24.95" customHeight="1">
+    <row r="334" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="125"/>
       <c r="C334" s="125"/>
     </row>
-    <row r="335" spans="2:3" ht="24.95" customHeight="1">
+    <row r="335" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="125"/>
       <c r="C335" s="125"/>
     </row>
-    <row r="336" spans="2:3" ht="24.95" customHeight="1">
+    <row r="336" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="125"/>
       <c r="C336" s="125"/>
     </row>
-    <row r="337" spans="2:3" ht="24.95" customHeight="1">
+    <row r="337" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="125"/>
       <c r="C337" s="125"/>
     </row>
-    <row r="338" spans="2:3" ht="24.95" customHeight="1">
+    <row r="338" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="125"/>
       <c r="C338" s="125"/>
     </row>
-    <row r="339" spans="2:3" ht="24.95" customHeight="1">
+    <row r="339" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="125"/>
       <c r="C339" s="125"/>
     </row>
-    <row r="340" spans="2:3" ht="24.95" customHeight="1">
+    <row r="340" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="125"/>
       <c r="C340" s="125"/>
     </row>
-    <row r="341" spans="2:3" ht="24.95" customHeight="1">
+    <row r="341" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="125"/>
       <c r="C341" s="125"/>
     </row>
-    <row r="342" spans="2:3" ht="24.95" customHeight="1">
+    <row r="342" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="125"/>
       <c r="C342" s="125"/>
     </row>
-    <row r="343" spans="2:3" ht="24.95" customHeight="1">
+    <row r="343" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="125"/>
       <c r="C343" s="125"/>
     </row>
-    <row r="344" spans="2:3" ht="24.95" customHeight="1">
+    <row r="344" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="125"/>
       <c r="C344" s="125"/>
     </row>
-    <row r="345" spans="2:3" ht="24.95" customHeight="1">
+    <row r="345" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="125"/>
       <c r="C345" s="125"/>
     </row>
-    <row r="346" spans="2:3" ht="24.95" customHeight="1">
+    <row r="346" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="125"/>
       <c r="C346" s="125"/>
     </row>
-    <row r="347" spans="2:3" ht="24.95" customHeight="1">
+    <row r="347" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="125"/>
       <c r="C347" s="125"/>
     </row>
-    <row r="348" spans="2:3" ht="24.95" customHeight="1">
+    <row r="348" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="125"/>
       <c r="C348" s="125"/>
     </row>
-    <row r="349" spans="2:3" ht="24.95" customHeight="1">
+    <row r="349" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="125"/>
       <c r="C349" s="125"/>
     </row>
-    <row r="350" spans="2:3" ht="24.95" customHeight="1">
+    <row r="350" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="125"/>
       <c r="C350" s="125"/>
     </row>
-    <row r="351" spans="2:3" ht="24.95" customHeight="1">
+    <row r="351" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="125"/>
       <c r="C351" s="125"/>
     </row>
-    <row r="352" spans="2:3" ht="24.95" customHeight="1">
+    <row r="352" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="125"/>
       <c r="C352" s="125"/>
     </row>
-    <row r="353" spans="2:3" ht="24.95" customHeight="1">
+    <row r="353" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="125"/>
       <c r="C353" s="125"/>
     </row>
-    <row r="354" spans="2:3" ht="24.95" customHeight="1">
+    <row r="354" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="125"/>
       <c r="C354" s="125"/>
     </row>
-    <row r="355" spans="2:3" ht="24.95" customHeight="1">
+    <row r="355" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="125"/>
       <c r="C355" s="125"/>
     </row>
-    <row r="356" spans="2:3" ht="24.95" customHeight="1">
+    <row r="356" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="125"/>
       <c r="C356" s="125"/>
     </row>
-    <row r="357" spans="2:3" ht="24.95" customHeight="1">
+    <row r="357" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="125"/>
       <c r="C357" s="125"/>
     </row>
-    <row r="358" spans="2:3" ht="24.95" customHeight="1">
+    <row r="358" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="125"/>
       <c r="C358" s="125"/>
     </row>
-    <row r="359" spans="2:3" ht="24.95" customHeight="1">
+    <row r="359" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="125"/>
       <c r="C359" s="125"/>
     </row>
-    <row r="360" spans="2:3" ht="24.95" customHeight="1">
+    <row r="360" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="125"/>
       <c r="C360" s="125"/>
     </row>
-    <row r="361" spans="2:3" ht="24.95" customHeight="1">
+    <row r="361" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="125"/>
       <c r="C361" s="125"/>
     </row>
-    <row r="362" spans="2:3" ht="24.95" customHeight="1">
+    <row r="362" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="125"/>
       <c r="C362" s="125"/>
     </row>
-    <row r="363" spans="2:3" ht="24.95" customHeight="1">
+    <row r="363" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="125"/>
       <c r="C363" s="125"/>
     </row>
-    <row r="364" spans="2:3" ht="24.95" customHeight="1">
+    <row r="364" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="125"/>
       <c r="C364" s="125"/>
     </row>
-    <row r="365" spans="2:3" ht="24.95" customHeight="1">
+    <row r="365" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="125"/>
       <c r="C365" s="125"/>
     </row>
-    <row r="366" spans="2:3" ht="24.95" customHeight="1">
+    <row r="366" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="125"/>
       <c r="C366" s="125"/>
     </row>
-    <row r="367" spans="2:3" ht="24.95" customHeight="1">
+    <row r="367" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="125"/>
       <c r="C367" s="125"/>
     </row>
-    <row r="368" spans="2:3" ht="24.95" customHeight="1">
+    <row r="368" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="125"/>
       <c r="C368" s="125"/>
     </row>
-    <row r="369" spans="2:3" ht="24.95" customHeight="1">
+    <row r="369" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="125"/>
       <c r="C369" s="125"/>
     </row>
-    <row r="370" spans="2:3" ht="24.95" customHeight="1">
+    <row r="370" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="125"/>
       <c r="C370" s="125"/>
     </row>
-    <row r="371" spans="2:3" ht="24.95" customHeight="1">
+    <row r="371" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="125"/>
       <c r="C371" s="125"/>
     </row>
-    <row r="372" spans="2:3" ht="24.95" customHeight="1">
+    <row r="372" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="125"/>
       <c r="C372" s="125"/>
     </row>
-    <row r="373" spans="2:3" ht="24.95" customHeight="1">
+    <row r="373" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="125"/>
       <c r="C373" s="125"/>
     </row>
-    <row r="374" spans="2:3" ht="24.95" customHeight="1">
+    <row r="374" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="125"/>
       <c r="C374" s="125"/>
     </row>
-    <row r="375" spans="2:3" ht="24.95" customHeight="1">
+    <row r="375" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="125"/>
       <c r="C375" s="125"/>
     </row>
-    <row r="376" spans="2:3" ht="24.95" customHeight="1">
+    <row r="376" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="125"/>
       <c r="C376" s="125"/>
     </row>
-    <row r="377" spans="2:3" ht="24.95" customHeight="1">
+    <row r="377" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="125"/>
       <c r="C377" s="125"/>
     </row>
-    <row r="378" spans="2:3" ht="24.95" customHeight="1">
+    <row r="378" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="125"/>
       <c r="C378" s="125"/>
     </row>
-    <row r="379" spans="2:3" ht="24.95" customHeight="1">
+    <row r="379" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="125"/>
       <c r="C379" s="125"/>
     </row>
-    <row r="380" spans="2:3" ht="24.95" customHeight="1">
+    <row r="380" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="125"/>
       <c r="C380" s="125"/>
     </row>
-    <row r="381" spans="2:3" ht="24.95" customHeight="1">
+    <row r="381" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="125"/>
       <c r="C381" s="125"/>
     </row>
-    <row r="382" spans="2:3" ht="24.95" customHeight="1">
+    <row r="382" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="125"/>
       <c r="C382" s="125"/>
     </row>
-    <row r="383" spans="2:3" ht="24.95" customHeight="1">
+    <row r="383" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="125"/>
       <c r="C383" s="125"/>
     </row>
-    <row r="384" spans="2:3" ht="24.95" customHeight="1">
+    <row r="384" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="125"/>
       <c r="C384" s="125"/>
     </row>
-    <row r="385" spans="2:3" ht="24.95" customHeight="1">
+    <row r="385" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="125"/>
       <c r="C385" s="125"/>
     </row>
-    <row r="386" spans="2:3" ht="24.95" customHeight="1">
+    <row r="386" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="125"/>
       <c r="C386" s="125"/>
     </row>
-    <row r="387" spans="2:3" ht="24.95" customHeight="1">
+    <row r="387" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="125"/>
       <c r="C387" s="125"/>
     </row>
-    <row r="388" spans="2:3" ht="24.95" customHeight="1">
+    <row r="388" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="125"/>
       <c r="C388" s="125"/>
     </row>
-    <row r="389" spans="2:3" ht="24.95" customHeight="1">
+    <row r="389" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="125"/>
       <c r="C389" s="125"/>
     </row>
-    <row r="390" spans="2:3" ht="24.95" customHeight="1">
+    <row r="390" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="125"/>
       <c r="C390" s="125"/>
     </row>
-    <row r="391" spans="2:3" ht="24.95" customHeight="1">
+    <row r="391" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="125"/>
       <c r="C391" s="125"/>
     </row>
-    <row r="392" spans="2:3" ht="24.95" customHeight="1">
+    <row r="392" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="125"/>
       <c r="C392" s="125"/>
     </row>
-    <row r="393" spans="2:3" ht="24.95" customHeight="1">
+    <row r="393" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="125"/>
       <c r="C393" s="125"/>
     </row>
-    <row r="394" spans="2:3" ht="24.95" customHeight="1">
+    <row r="394" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="125"/>
       <c r="C394" s="125"/>
     </row>
-    <row r="395" spans="2:3" ht="24.95" customHeight="1">
+    <row r="395" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="125"/>
       <c r="C395" s="125"/>
     </row>
-    <row r="396" spans="2:3" ht="24.95" customHeight="1">
+    <row r="396" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="125"/>
       <c r="C396" s="125"/>
     </row>
-    <row r="397" spans="2:3" ht="24.95" customHeight="1">
+    <row r="397" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="125"/>
       <c r="C397" s="125"/>
     </row>
-    <row r="398" spans="2:3" ht="24.95" customHeight="1">
+    <row r="398" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="125"/>
       <c r="C398" s="125"/>
     </row>
-    <row r="399" spans="2:3" ht="24.95" customHeight="1">
+    <row r="399" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="125"/>
       <c r="C399" s="125"/>
     </row>
-    <row r="400" spans="2:3" ht="24.95" customHeight="1">
+    <row r="400" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="125"/>
       <c r="C400" s="125"/>
     </row>
-    <row r="401" spans="2:3" ht="24.95" customHeight="1">
+    <row r="401" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="125"/>
       <c r="C401" s="125"/>
     </row>
-    <row r="402" spans="2:3" ht="24.95" customHeight="1">
+    <row r="402" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="125"/>
       <c r="C402" s="125"/>
     </row>
-    <row r="403" spans="2:3" ht="24.95" customHeight="1">
+    <row r="403" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="125"/>
       <c r="C403" s="125"/>
     </row>
-    <row r="404" spans="2:3" ht="24.95" customHeight="1">
+    <row r="404" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="125"/>
       <c r="C404" s="125"/>
     </row>
-    <row r="405" spans="2:3" ht="24.95" customHeight="1">
+    <row r="405" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="125"/>
       <c r="C405" s="125"/>
     </row>
-    <row r="406" spans="2:3" ht="24.95" customHeight="1">
+    <row r="406" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="125"/>
       <c r="C406" s="125"/>
     </row>
-    <row r="407" spans="2:3" ht="24.95" customHeight="1">
+    <row r="407" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="125"/>
       <c r="C407" s="125"/>
     </row>
-    <row r="408" spans="2:3" ht="24.95" customHeight="1">
+    <row r="408" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="125"/>
       <c r="C408" s="125"/>
     </row>
-    <row r="409" spans="2:3" ht="24.95" customHeight="1">
+    <row r="409" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="125"/>
       <c r="C409" s="125"/>
     </row>
-    <row r="410" spans="2:3" ht="24.95" customHeight="1">
+    <row r="410" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="125"/>
       <c r="C410" s="125"/>
     </row>
-    <row r="411" spans="2:3" ht="24.95" customHeight="1">
+    <row r="411" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="125"/>
       <c r="C411" s="125"/>
     </row>
-    <row r="412" spans="2:3" ht="24.95" customHeight="1">
+    <row r="412" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="125"/>
       <c r="C412" s="125"/>
     </row>
-    <row r="413" spans="2:3" ht="24.95" customHeight="1">
+    <row r="413" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="125"/>
       <c r="C413" s="125"/>
     </row>
-    <row r="414" spans="2:3" ht="24.95" customHeight="1">
+    <row r="414" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="125"/>
       <c r="C414" s="125"/>
     </row>
-    <row r="415" spans="2:3" ht="24.95" customHeight="1">
+    <row r="415" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="125"/>
       <c r="C415" s="125"/>
     </row>
-    <row r="416" spans="2:3" ht="24.95" customHeight="1">
+    <row r="416" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="125"/>
       <c r="C416" s="125"/>
     </row>
-    <row r="417" spans="2:3" ht="24.95" customHeight="1">
+    <row r="417" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="125"/>
       <c r="C417" s="125"/>
     </row>
-    <row r="418" spans="2:3" ht="24.95" customHeight="1">
+    <row r="418" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="125"/>
       <c r="C418" s="125"/>
     </row>
-    <row r="419" spans="2:3" ht="24.95" customHeight="1">
+    <row r="419" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="125"/>
       <c r="C419" s="125"/>
     </row>
-    <row r="420" spans="2:3" ht="24.95" customHeight="1">
+    <row r="420" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="125"/>
       <c r="C420" s="125"/>
     </row>
-    <row r="421" spans="2:3" ht="24.95" customHeight="1">
+    <row r="421" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="125"/>
       <c r="C421" s="125"/>
     </row>
-    <row r="422" spans="2:3" ht="24.95" customHeight="1">
+    <row r="422" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="125"/>
       <c r="C422" s="125"/>
     </row>
-    <row r="423" spans="2:3" ht="24.95" customHeight="1">
+    <row r="423" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="125"/>
       <c r="C423" s="125"/>
     </row>
-    <row r="424" spans="2:3" ht="24.95" customHeight="1">
+    <row r="424" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="125"/>
       <c r="C424" s="125"/>
     </row>
-    <row r="425" spans="2:3" ht="24.95" customHeight="1">
+    <row r="425" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="125"/>
       <c r="C425" s="125"/>
     </row>
-    <row r="426" spans="2:3" ht="24.95" customHeight="1">
+    <row r="426" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="125"/>
       <c r="C426" s="125"/>
     </row>
-    <row r="427" spans="2:3" ht="24.95" customHeight="1">
+    <row r="427" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="125"/>
       <c r="C427" s="125"/>
     </row>
-    <row r="428" spans="2:3" ht="24.95" customHeight="1">
+    <row r="428" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="125"/>
       <c r="C428" s="125"/>
     </row>
-    <row r="429" spans="2:3" ht="24.95" customHeight="1">
+    <row r="429" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="125"/>
       <c r="C429" s="125"/>
     </row>
-    <row r="430" spans="2:3" ht="24.95" customHeight="1">
+    <row r="430" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="125"/>
       <c r="C430" s="125"/>
     </row>
-    <row r="431" spans="2:3" ht="24.95" customHeight="1">
+    <row r="431" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="125"/>
       <c r="C431" s="125"/>
     </row>
-    <row r="432" spans="2:3" ht="24.95" customHeight="1">
+    <row r="432" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="125"/>
       <c r="C432" s="125"/>
     </row>
-    <row r="433" spans="2:3" ht="24.95" customHeight="1">
+    <row r="433" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="125"/>
       <c r="C433" s="125"/>
     </row>
-    <row r="434" spans="2:3" ht="24.95" customHeight="1">
+    <row r="434" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="125"/>
       <c r="C434" s="125"/>
     </row>
-    <row r="435" spans="2:3" ht="24.95" customHeight="1">
+    <row r="435" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="125"/>
       <c r="C435" s="125"/>
     </row>
-    <row r="436" spans="2:3" ht="24.95" customHeight="1">
+    <row r="436" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="125"/>
       <c r="C436" s="125"/>
     </row>
-    <row r="437" spans="2:3" ht="24.95" customHeight="1">
+    <row r="437" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="125"/>
       <c r="C437" s="125"/>
     </row>
-    <row r="438" spans="2:3" ht="24.95" customHeight="1">
+    <row r="438" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="125"/>
       <c r="C438" s="125"/>
     </row>
-    <row r="439" spans="2:3" ht="24.95" customHeight="1">
+    <row r="439" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="125"/>
       <c r="C439" s="125"/>
     </row>
-    <row r="440" spans="2:3" ht="24.95" customHeight="1">
+    <row r="440" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="125"/>
       <c r="C440" s="125"/>
     </row>
-    <row r="441" spans="2:3" ht="24.95" customHeight="1">
+    <row r="441" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="125"/>
       <c r="C441" s="125"/>
     </row>
-    <row r="442" spans="2:3" ht="24.95" customHeight="1">
+    <row r="442" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="125"/>
       <c r="C442" s="125"/>
     </row>
-    <row r="443" spans="2:3" ht="24.95" customHeight="1">
+    <row r="443" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="125"/>
       <c r="C443" s="125"/>
     </row>
-    <row r="444" spans="2:3" ht="24.95" customHeight="1">
+    <row r="444" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="125"/>
       <c r="C444" s="125"/>
     </row>
-    <row r="445" spans="2:3" ht="24.95" customHeight="1">
+    <row r="445" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="125"/>
       <c r="C445" s="125"/>
     </row>
-    <row r="446" spans="2:3" ht="24.95" customHeight="1">
+    <row r="446" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="125"/>
       <c r="C446" s="125"/>
     </row>
-    <row r="447" spans="2:3" ht="24.95" customHeight="1">
+    <row r="447" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="125"/>
       <c r="C447" s="125"/>
     </row>
-    <row r="448" spans="2:3" ht="24.95" customHeight="1">
+    <row r="448" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="125"/>
       <c r="C448" s="125"/>
     </row>
-    <row r="449" spans="2:3" ht="24.95" customHeight="1">
+    <row r="449" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="125"/>
       <c r="C449" s="125"/>
     </row>
-    <row r="450" spans="2:3" ht="24.95" customHeight="1">
+    <row r="450" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="125"/>
       <c r="C450" s="125"/>
     </row>
-    <row r="451" spans="2:3" ht="24.95" customHeight="1">
+    <row r="451" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="125"/>
       <c r="C451" s="125"/>
     </row>
-    <row r="452" spans="2:3" ht="24.95" customHeight="1">
+    <row r="452" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="125"/>
       <c r="C452" s="125"/>
     </row>
-    <row r="453" spans="2:3" ht="24.95" customHeight="1">
+    <row r="453" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="125"/>
       <c r="C453" s="125"/>
     </row>
-    <row r="454" spans="2:3" ht="24.95" customHeight="1">
+    <row r="454" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="125"/>
       <c r="C454" s="125"/>
     </row>
-    <row r="455" spans="2:3" ht="24.95" customHeight="1">
+    <row r="455" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="125"/>
       <c r="C455" s="125"/>
     </row>
-    <row r="456" spans="2:3" ht="24.95" customHeight="1">
+    <row r="456" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="125"/>
       <c r="C456" s="125"/>
     </row>
-    <row r="457" spans="2:3" ht="24.95" customHeight="1">
+    <row r="457" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="125"/>
       <c r="C457" s="125"/>
     </row>
-    <row r="458" spans="2:3" ht="24.95" customHeight="1">
+    <row r="458" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="125"/>
       <c r="C458" s="125"/>
     </row>
-    <row r="459" spans="2:3" ht="24.95" customHeight="1">
+    <row r="459" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="125"/>
       <c r="C459" s="125"/>
     </row>
-    <row r="460" spans="2:3" ht="24.95" customHeight="1">
+    <row r="460" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="125"/>
       <c r="C460" s="125"/>
     </row>
-    <row r="461" spans="2:3" ht="24.95" customHeight="1">
+    <row r="461" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="125"/>
       <c r="C461" s="125"/>
     </row>
-    <row r="462" spans="2:3" ht="24.95" customHeight="1">
+    <row r="462" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="125"/>
       <c r="C462" s="125"/>
     </row>
-    <row r="463" spans="2:3" ht="24.95" customHeight="1">
+    <row r="463" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="125"/>
       <c r="C463" s="125"/>
     </row>
-    <row r="464" spans="2:3" ht="24.95" customHeight="1">
+    <row r="464" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="125"/>
       <c r="C464" s="125"/>
     </row>
-    <row r="465" spans="2:3" ht="24.95" customHeight="1">
+    <row r="465" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="125"/>
       <c r="C465" s="125"/>
     </row>
-    <row r="466" spans="2:3" ht="24.95" customHeight="1">
+    <row r="466" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="125"/>
       <c r="C466" s="125"/>
     </row>
-    <row r="467" spans="2:3" ht="24.95" customHeight="1">
+    <row r="467" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="125"/>
       <c r="C467" s="125"/>
     </row>
-    <row r="468" spans="2:3" ht="24.95" customHeight="1">
+    <row r="468" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="125"/>
       <c r="C468" s="125"/>
     </row>
-    <row r="469" spans="2:3" ht="24.95" customHeight="1">
+    <row r="469" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="125"/>
       <c r="C469" s="125"/>
     </row>
-    <row r="470" spans="2:3" ht="24.95" customHeight="1">
+    <row r="470" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="125"/>
       <c r="C470" s="125"/>
     </row>
-    <row r="471" spans="2:3" ht="24.95" customHeight="1">
+    <row r="471" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="125"/>
       <c r="C471" s="125"/>
     </row>
-    <row r="472" spans="2:3" ht="24.95" customHeight="1">
+    <row r="472" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="125"/>
       <c r="C472" s="125"/>
     </row>
-    <row r="473" spans="2:3" ht="24.95" customHeight="1">
+    <row r="473" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="125"/>
       <c r="C473" s="125"/>
     </row>
-    <row r="474" spans="2:3" ht="24.95" customHeight="1">
+    <row r="474" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="125"/>
       <c r="C474" s="125"/>
     </row>
-    <row r="475" spans="2:3" ht="24.95" customHeight="1">
+    <row r="475" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="125"/>
       <c r="C475" s="125"/>
     </row>
-    <row r="476" spans="2:3" ht="24.95" customHeight="1">
+    <row r="476" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="125"/>
       <c r="C476" s="125"/>
     </row>
-    <row r="477" spans="2:3" ht="24.95" customHeight="1">
+    <row r="477" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="125"/>
       <c r="C477" s="125"/>
     </row>
-    <row r="478" spans="2:3" ht="24.95" customHeight="1">
+    <row r="478" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="125"/>
       <c r="C478" s="125"/>
     </row>
-    <row r="479" spans="2:3" ht="24.95" customHeight="1">
+    <row r="479" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="125"/>
       <c r="C479" s="125"/>
     </row>
-    <row r="480" spans="2:3" ht="24.95" customHeight="1">
+    <row r="480" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="125"/>
       <c r="C480" s="125"/>
     </row>
-    <row r="481" spans="2:3" ht="24.95" customHeight="1">
+    <row r="481" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="125"/>
       <c r="C481" s="125"/>
     </row>
-    <row r="482" spans="2:3" ht="24.95" customHeight="1">
+    <row r="482" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="125"/>
       <c r="C482" s="125"/>
     </row>
-    <row r="483" spans="2:3" ht="24.95" customHeight="1">
+    <row r="483" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="125"/>
       <c r="C483" s="125"/>
     </row>
-    <row r="484" spans="2:3" ht="24.95" customHeight="1">
+    <row r="484" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="125"/>
       <c r="C484" s="125"/>
     </row>
-    <row r="485" spans="2:3" ht="24.95" customHeight="1">
+    <row r="485" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="125"/>
       <c r="C485" s="125"/>
     </row>
-    <row r="486" spans="2:3" ht="24.95" customHeight="1">
+    <row r="486" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="125"/>
       <c r="C486" s="125"/>
     </row>
-    <row r="487" spans="2:3" ht="24.95" customHeight="1">
+    <row r="487" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="125"/>
       <c r="C487" s="125"/>
     </row>
-    <row r="488" spans="2:3" ht="24.95" customHeight="1">
+    <row r="488" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="125"/>
       <c r="C488" s="125"/>
     </row>
-    <row r="489" spans="2:3" ht="24.95" customHeight="1">
+    <row r="489" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="125"/>
       <c r="C489" s="125"/>
     </row>
-    <row r="490" spans="2:3" ht="24.95" customHeight="1">
+    <row r="490" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="125"/>
       <c r="C490" s="125"/>
     </row>
-    <row r="491" spans="2:3" ht="24.95" customHeight="1">
+    <row r="491" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="125"/>
       <c r="C491" s="125"/>
     </row>
-    <row r="492" spans="2:3" ht="24.95" customHeight="1">
+    <row r="492" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="125"/>
       <c r="C492" s="125"/>
     </row>
-    <row r="493" spans="2:3" ht="24.95" customHeight="1">
+    <row r="493" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="125"/>
       <c r="C493" s="125"/>
     </row>
-    <row r="494" spans="2:3" ht="24.95" customHeight="1">
+    <row r="494" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="125"/>
       <c r="C494" s="125"/>
     </row>
-    <row r="495" spans="2:3" ht="24.95" customHeight="1">
+    <row r="495" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="125"/>
       <c r="C495" s="125"/>
     </row>
-    <row r="496" spans="2:3" ht="24.95" customHeight="1">
+    <row r="496" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="125"/>
       <c r="C496" s="125"/>
     </row>
@@ -22920,7 +22919,7 @@
       <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="60" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="70" customWidth="1"/>
     <col min="2" max="2" width="90" style="70" bestFit="1" customWidth="1"/>
@@ -22944,65 +22943,65 @@
     <col min="34" max="16384" width="8.7109375" style="70"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" ht="60" customHeight="1">
-      <c r="B2" s="260" t="s">
+    <row r="2" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="265" t="s">
         <v>1161</v>
       </c>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-    </row>
-    <row r="3" spans="1:33" ht="60" customHeight="1">
-      <c r="B3" s="260"/>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+    </row>
+    <row r="3" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
       <c r="I3" s="120"/>
     </row>
-    <row r="4" spans="1:33" ht="60" customHeight="1">
-      <c r="B4" s="260"/>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-    </row>
-    <row r="5" spans="1:33" ht="60" customHeight="1">
-      <c r="J5" s="266" t="s">
+    <row r="4" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="265"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
+      <c r="F4" s="265"/>
+      <c r="G4" s="265"/>
+      <c r="H4" s="265"/>
+    </row>
+    <row r="5" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="263" t="s">
         <v>1162</v>
       </c>
-      <c r="K5" s="266"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="266"/>
-      <c r="S5" s="266"/>
-      <c r="T5" s="266"/>
-      <c r="U5" s="266"/>
-      <c r="V5" s="266"/>
-      <c r="W5" s="266"/>
-      <c r="X5" s="266"/>
-      <c r="Y5" s="266"/>
-      <c r="Z5" s="266"/>
-      <c r="AA5" s="266"/>
-      <c r="AB5" s="266"/>
-      <c r="AC5" s="266"/>
-      <c r="AD5" s="266"/>
-      <c r="AE5" s="266"/>
-      <c r="AF5" s="266"/>
-      <c r="AG5" s="266"/>
-    </row>
-    <row r="6" spans="1:33" ht="60" customHeight="1">
+      <c r="K5" s="263"/>
+      <c r="L5" s="263"/>
+      <c r="M5" s="263"/>
+      <c r="N5" s="263"/>
+      <c r="O5" s="263"/>
+      <c r="P5" s="263"/>
+      <c r="Q5" s="263"/>
+      <c r="R5" s="263"/>
+      <c r="S5" s="263"/>
+      <c r="T5" s="263"/>
+      <c r="U5" s="263"/>
+      <c r="V5" s="263"/>
+      <c r="W5" s="263"/>
+      <c r="X5" s="263"/>
+      <c r="Y5" s="263"/>
+      <c r="Z5" s="263"/>
+      <c r="AA5" s="263"/>
+      <c r="AB5" s="263"/>
+      <c r="AC5" s="263"/>
+      <c r="AD5" s="263"/>
+      <c r="AE5" s="263"/>
+      <c r="AF5" s="263"/>
+      <c r="AG5" s="263"/>
+    </row>
+    <row r="6" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>1163</v>
       </c>
@@ -23103,7 +23102,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="60" customHeight="1">
+    <row r="7" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>1068</v>
       </c>
@@ -23119,10 +23118,10 @@
       <c r="F7" s="73" t="s">
         <v>1180</v>
       </c>
-      <c r="G7" s="261" t="s">
+      <c r="G7" s="264" t="s">
         <v>897</v>
       </c>
-      <c r="H7" s="261"/>
+      <c r="H7" s="264"/>
       <c r="I7" s="72"/>
       <c r="J7" s="69"/>
       <c r="K7" s="13"/>
@@ -23155,7 +23154,7 @@
       <c r="AF7" s="71"/>
       <c r="AG7" s="71"/>
     </row>
-    <row r="8" spans="1:33" ht="60" customHeight="1">
+    <row r="8" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>1182</v>
       </c>
@@ -23171,10 +23170,10 @@
       <c r="F8" s="73" t="s">
         <v>1185</v>
       </c>
-      <c r="G8" s="261" t="s">
+      <c r="G8" s="264" t="s">
         <v>897</v>
       </c>
-      <c r="H8" s="261"/>
+      <c r="H8" s="264"/>
       <c r="I8" s="72"/>
       <c r="J8" s="69"/>
       <c r="K8" s="13"/>
@@ -23207,7 +23206,7 @@
       <c r="AF8" s="71"/>
       <c r="AG8" s="71"/>
     </row>
-    <row r="9" spans="1:33" ht="60" customHeight="1">
+    <row r="9" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>1186</v>
       </c>
@@ -23259,7 +23258,7 @@
       <c r="AF9" s="71"/>
       <c r="AG9" s="71"/>
     </row>
-    <row r="10" spans="1:33" ht="60" customHeight="1">
+    <row r="10" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>1190</v>
       </c>
@@ -23311,7 +23310,7 @@
       <c r="AF10" s="71"/>
       <c r="AG10" s="71"/>
     </row>
-    <row r="11" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>1194</v>
       </c>
@@ -23327,10 +23326,10 @@
       <c r="F11" s="125" t="s">
         <v>1196</v>
       </c>
-      <c r="G11" s="262" t="s">
+      <c r="G11" s="266" t="s">
         <v>1197</v>
       </c>
-      <c r="H11" s="262"/>
+      <c r="H11" s="266"/>
       <c r="I11" s="72"/>
       <c r="J11" s="69"/>
       <c r="K11" s="13"/>
@@ -23363,7 +23362,7 @@
       <c r="AF11" s="71"/>
       <c r="AG11" s="71"/>
     </row>
-    <row r="12" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>1198</v>
       </c>
@@ -23379,10 +23378,10 @@
       <c r="F12" s="125" t="s">
         <v>1196</v>
       </c>
-      <c r="G12" s="262" t="s">
+      <c r="G12" s="266" t="s">
         <v>1197</v>
       </c>
-      <c r="H12" s="262"/>
+      <c r="H12" s="266"/>
       <c r="I12" s="72"/>
       <c r="J12" s="69"/>
       <c r="K12" s="13"/>
@@ -23415,7 +23414,7 @@
       <c r="AF12" s="71"/>
       <c r="AG12" s="71"/>
     </row>
-    <row r="13" spans="1:33" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
         <v>1200</v>
       </c>
@@ -23431,10 +23430,10 @@
       <c r="F13" s="73" t="s">
         <v>1203</v>
       </c>
-      <c r="G13" s="262" t="s">
+      <c r="G13" s="266" t="s">
         <v>1197</v>
       </c>
-      <c r="H13" s="262"/>
+      <c r="H13" s="266"/>
       <c r="I13" s="72"/>
       <c r="J13" s="69"/>
       <c r="K13" s="13"/>
@@ -23467,7 +23466,7 @@
       <c r="AF13" s="71"/>
       <c r="AG13" s="71"/>
     </row>
-    <row r="14" spans="1:33" ht="60" customHeight="1">
+    <row r="14" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>1204</v>
       </c>
@@ -23519,7 +23518,7 @@
       <c r="AF14" s="71"/>
       <c r="AG14" s="71"/>
     </row>
-    <row r="15" spans="1:33" ht="60" customHeight="1">
+    <row r="15" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>1208</v>
       </c>
@@ -23571,7 +23570,7 @@
       <c r="AF15" s="71"/>
       <c r="AG15" s="71"/>
     </row>
-    <row r="16" spans="1:33" ht="45.95" customHeight="1">
+    <row r="16" spans="1:33" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>1212</v>
       </c>
@@ -23587,11 +23586,11 @@
       <c r="F16" s="73" t="s">
         <v>1215</v>
       </c>
-      <c r="G16" s="263" t="s">
+      <c r="G16" s="267" t="s">
         <v>1216</v>
       </c>
-      <c r="H16" s="264"/>
-      <c r="I16" s="265"/>
+      <c r="H16" s="268"/>
+      <c r="I16" s="269"/>
       <c r="J16" s="69" t="s">
         <v>1181</v>
       </c>
@@ -23655,7 +23654,7 @@
       <c r="AF16" s="71"/>
       <c r="AG16" s="71"/>
     </row>
-    <row r="17" spans="1:33" ht="60" customHeight="1">
+    <row r="17" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>1217</v>
       </c>
@@ -23671,10 +23670,10 @@
       <c r="F17" s="125" t="s">
         <v>1220</v>
       </c>
-      <c r="G17" s="261" t="s">
+      <c r="G17" s="264" t="s">
         <v>897</v>
       </c>
-      <c r="H17" s="261"/>
+      <c r="H17" s="264"/>
       <c r="I17" s="72"/>
       <c r="J17" s="69"/>
       <c r="K17" s="13"/>
@@ -23707,7 +23706,7 @@
       <c r="AF17" s="71"/>
       <c r="AG17" s="71"/>
     </row>
-    <row r="18" spans="1:33" ht="60" customHeight="1">
+    <row r="18" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>1221</v>
       </c>
@@ -23759,7 +23758,7 @@
       <c r="AF18" s="71"/>
       <c r="AG18" s="71"/>
     </row>
-    <row r="19" spans="1:33" ht="60" customHeight="1">
+    <row r="19" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>1225</v>
       </c>
@@ -23811,7 +23810,7 @@
       <c r="AF19" s="71"/>
       <c r="AG19" s="71"/>
     </row>
-    <row r="20" spans="1:33" ht="60" customHeight="1">
+    <row r="20" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>1228</v>
       </c>
@@ -23827,10 +23826,10 @@
       <c r="F20" s="125" t="s">
         <v>1231</v>
       </c>
-      <c r="G20" s="261" t="s">
+      <c r="G20" s="264" t="s">
         <v>897</v>
       </c>
-      <c r="H20" s="261"/>
+      <c r="H20" s="264"/>
       <c r="I20" s="72"/>
       <c r="J20" s="69"/>
       <c r="K20" s="13"/>
@@ -23863,7 +23862,7 @@
       <c r="AF20" s="71"/>
       <c r="AG20" s="71"/>
     </row>
-    <row r="21" spans="1:33" ht="60" customHeight="1">
+    <row r="21" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>1232</v>
       </c>
@@ -23879,10 +23878,10 @@
       <c r="F21" s="125" t="s">
         <v>1234</v>
       </c>
-      <c r="G21" s="261" t="s">
+      <c r="G21" s="264" t="s">
         <v>897</v>
       </c>
-      <c r="H21" s="261"/>
+      <c r="H21" s="264"/>
       <c r="I21" s="72"/>
       <c r="J21" s="69"/>
       <c r="K21" s="13"/>
@@ -23915,7 +23914,7 @@
       <c r="AF21" s="71"/>
       <c r="AG21" s="71"/>
     </row>
-    <row r="22" spans="1:33" ht="60" customHeight="1">
+    <row r="22" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>1235</v>
       </c>
@@ -23931,10 +23930,10 @@
       <c r="F22" s="127" t="s">
         <v>1237</v>
       </c>
-      <c r="G22" s="261" t="s">
+      <c r="G22" s="264" t="s">
         <v>897</v>
       </c>
-      <c r="H22" s="261"/>
+      <c r="H22" s="264"/>
       <c r="I22" s="72"/>
       <c r="J22" s="69"/>
       <c r="K22" s="13"/>
@@ -23967,7 +23966,7 @@
       <c r="AF22" s="71"/>
       <c r="AG22" s="71"/>
     </row>
-    <row r="23" spans="1:33" ht="60" customHeight="1">
+    <row r="23" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>1238</v>
       </c>
@@ -23983,10 +23982,10 @@
       <c r="F23" s="127" t="s">
         <v>1240</v>
       </c>
-      <c r="G23" s="261" t="s">
+      <c r="G23" s="264" t="s">
         <v>897</v>
       </c>
-      <c r="H23" s="261"/>
+      <c r="H23" s="264"/>
       <c r="I23" s="72"/>
       <c r="J23" s="69"/>
       <c r="K23" s="13"/>
@@ -24019,7 +24018,7 @@
       <c r="AF23" s="71"/>
       <c r="AG23" s="71"/>
     </row>
-    <row r="24" spans="1:33" ht="60" customHeight="1">
+    <row r="24" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
         <v>1241</v>
       </c>
@@ -24035,10 +24034,10 @@
       <c r="F24" s="125" t="s">
         <v>1243</v>
       </c>
-      <c r="G24" s="261" t="s">
+      <c r="G24" s="264" t="s">
         <v>897</v>
       </c>
-      <c r="H24" s="261"/>
+      <c r="H24" s="264"/>
       <c r="I24" s="72"/>
       <c r="J24" s="69"/>
       <c r="K24" s="13"/>
@@ -24071,7 +24070,7 @@
       <c r="AF24" s="71"/>
       <c r="AG24" s="71"/>
     </row>
-    <row r="25" spans="1:33" ht="60" customHeight="1">
+    <row r="25" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
         <v>1244</v>
       </c>
@@ -24087,10 +24086,10 @@
       <c r="F25" s="127" t="s">
         <v>1246</v>
       </c>
-      <c r="G25" s="261" t="s">
+      <c r="G25" s="264" t="s">
         <v>897</v>
       </c>
-      <c r="H25" s="261"/>
+      <c r="H25" s="264"/>
       <c r="I25" s="72"/>
       <c r="J25" s="69"/>
       <c r="K25" s="13"/>
@@ -24123,33 +24122,28 @@
       <c r="AF25" s="71"/>
       <c r="AG25" s="71"/>
     </row>
-    <row r="26" spans="1:33" ht="60" customHeight="1">
+    <row r="26" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="70" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="60" customHeight="1">
+    <row r="27" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="60" customHeight="1">
+    <row r="28" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="120" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="60" customHeight="1">
+    <row r="29" spans="1:33" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="70" t="s">
         <v>1250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J5:AG5"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G17:H17"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:H23"/>
@@ -24160,6 +24154,11 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J5:AG5"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24168,6 +24167,39 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7f1d7892-5903-4ee2-82eb-7014c3cbe887">
+      <UserInfo>
+        <DisplayName>Katharine Evans</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stela Mclachlan</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Williams, Dylan</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E490D02C860B6F49B88981D8FA26E98F" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="28817a7ca07cfcaa9e43b67df5feea25">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e9ae55c-4f48-45b4-843e-c6c4d968a8f4" xmlns:ns3="7f1d7892-5903-4ee2-82eb-7014c3cbe887" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="844228b4f5e3339c8fd49788b18316cc" ns2:_="" ns3:_="">
     <xsd:import namespace="0e9ae55c-4f48-45b4-843e-c6c4d968a8f4"/>
@@ -24364,47 +24396,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7f1d7892-5903-4ee2-82eb-7014c3cbe887">
-      <UserInfo>
-        <DisplayName>Katharine Evans</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stela Mclachlan</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Williams, Dylan</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BB16362-07B1-4E6B-9D14-4B55624107B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62C997DC-86E0-4DEE-A839-77DBA85A652D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA88E51-1E32-4441-B4A9-AB52BE9AB334}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA88E51-1E32-4441-B4A9-AB52BE9AB334}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f1d7892-5903-4ee2-82eb-7014c3cbe887"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62C997DC-86E0-4DEE-A839-77DBA85A652D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BB16362-07B1-4E6B-9D14-4B55624107B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0e9ae55c-4f48-45b4-843e-c6c4d968a8f4"/>
+    <ds:schemaRef ds:uri="7f1d7892-5903-4ee2-82eb-7014c3cbe887"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>